--- a/xlsx/stats.xlsx
+++ b/xlsx/stats.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cdf</t>
+          <t>ecdf</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
         <v>-0.147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01041666666666667</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>-0.077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.02105263157894737</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>-0.043</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03125</v>
+        <v>0.03157894736842105</v>
       </c>
     </row>
     <row r="5">
@@ -584,7 +584,7 @@
         <v>-0.037</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.04210526315789474</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
         <v>-0.025</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05208333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="7">
@@ -640,7 +640,7 @@
         <v>-0.025</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0625</v>
+        <v>0.06315789473684211</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
         <v>-0.022</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07291666666666666</v>
+        <v>0.07368421052631578</v>
       </c>
     </row>
     <row r="9">
@@ -696,7 +696,7 @@
         <v>-0.022</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08421052631578947</v>
       </c>
     </row>
     <row r="10">
@@ -724,7 +724,7 @@
         <v>-0.022</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09375</v>
+        <v>0.09473684210526316</v>
       </c>
     </row>
     <row r="11">
@@ -752,7 +752,7 @@
         <v>-0.02</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1041666666666667</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="12">
@@ -780,7 +780,7 @@
         <v>-0.018</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1145833333333333</v>
+        <v>0.1157894736842105</v>
       </c>
     </row>
     <row r="13">
@@ -808,7 +808,7 @@
         <v>-0.018</v>
       </c>
       <c r="H13" t="n">
-        <v>0.125</v>
+        <v>0.1263157894736842</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +836,7 @@
         <v>-0.018</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1354166666666667</v>
+        <v>0.1368421052631579</v>
       </c>
     </row>
     <row r="15">
@@ -864,7 +864,7 @@
         <v>-0.015</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1473684210526316</v>
       </c>
     </row>
     <row r="16">
@@ -892,7 +892,7 @@
         <v>-0.015</v>
       </c>
       <c r="H16" t="n">
-        <v>0.15625</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="17">
@@ -920,7 +920,7 @@
         <v>-0.015</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1684210526315789</v>
       </c>
     </row>
     <row r="18">
@@ -948,7 +948,7 @@
         <v>-0.015</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1770833333333333</v>
+        <v>0.1789473684210526</v>
       </c>
     </row>
     <row r="19">
@@ -976,7 +976,7 @@
         <v>-0.015</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1875</v>
+        <v>0.1894736842105263</v>
       </c>
     </row>
     <row r="20">
@@ -1004,7 +1004,7 @@
         <v>-0.013</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
@@ -1032,7 +1032,7 @@
         <v>-0.01</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1060,7 @@
         <v>-0.01</v>
       </c>
       <c r="H22" t="n">
-        <v>0.21875</v>
+        <v>0.2210526315789474</v>
       </c>
     </row>
     <row r="23">
@@ -1088,7 +1088,7 @@
         <v>-0.01</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.2315789473684211</v>
       </c>
     </row>
     <row r="24">
@@ -1116,7 +1116,7 @@
         <v>-0.01</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2395833333333333</v>
+        <v>0.2421052631578947</v>
       </c>
     </row>
     <row r="25">
@@ -1144,7 +1144,7 @@
         <v>-0.01</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0.2526315789473684</v>
       </c>
     </row>
     <row r="26">
@@ -1172,7 +1172,7 @@
         <v>-0.007</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2604166666666666</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="27">
@@ -1200,7 +1200,7 @@
         <v>-0.007</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.2736842105263158</v>
       </c>
     </row>
     <row r="28">
@@ -1228,7 +1228,7 @@
         <v>-0.007</v>
       </c>
       <c r="H28" t="n">
-        <v>0.28125</v>
+        <v>0.2842105263157895</v>
       </c>
     </row>
     <row r="29">
@@ -1256,7 +1256,7 @@
         <v>-0.007</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2916666666666666</v>
+        <v>0.2947368421052631</v>
       </c>
     </row>
     <row r="30">
@@ -1284,7 +1284,7 @@
         <v>-0.007</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3020833333333333</v>
+        <v>0.3052631578947368</v>
       </c>
     </row>
     <row r="31">
@@ -1312,7 +1312,7 @@
         <v>-0.007</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3125</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="32">
@@ -1340,7 +1340,7 @@
         <v>-0.007</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3229166666666666</v>
+        <v>0.3263157894736842</v>
       </c>
     </row>
     <row r="33">
@@ -1368,7 +1368,7 @@
         <v>-0.007</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3368421052631579</v>
       </c>
     </row>
     <row r="34">
@@ -1396,7 +1396,7 @@
         <v>-0.007</v>
       </c>
       <c r="H34" t="n">
-        <v>0.34375</v>
+        <v>0.3473684210526315</v>
       </c>
     </row>
     <row r="35">
@@ -1424,7 +1424,7 @@
         <v>-0.005</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3541666666666666</v>
+        <v>0.3578947368421053</v>
       </c>
     </row>
     <row r="36">
@@ -1452,7 +1452,7 @@
         <v>-0.005</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3645833333333333</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="37">
@@ -1480,7 +1480,7 @@
         <v>-0.005</v>
       </c>
       <c r="H37" t="n">
-        <v>0.375</v>
+        <v>0.3789473684210526</v>
       </c>
     </row>
     <row r="38">
@@ -1508,7 +1508,7 @@
         <v>-0.005</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3854166666666666</v>
+        <v>0.3894736842105263</v>
       </c>
     </row>
     <row r="39">
@@ -1536,7 +1536,7 @@
         <v>-0.005</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40">
@@ -1564,7 +1564,7 @@
         <v>-0.005</v>
       </c>
       <c r="H40" t="n">
-        <v>0.40625</v>
+        <v>0.4105263157894737</v>
       </c>
     </row>
     <row r="41">
@@ -1592,7 +1592,7 @@
         <v>-0.005</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="42">
@@ -1620,7 +1620,7 @@
         <v>-0.005</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.4315789473684211</v>
       </c>
     </row>
     <row r="43">
@@ -1648,7 +1648,7 @@
         <v>-0.005</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4375</v>
+        <v>0.4421052631578947</v>
       </c>
     </row>
     <row r="44">
@@ -1676,7 +1676,7 @@
         <v>-0.005</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4479166666666666</v>
+        <v>0.4526315789473684</v>
       </c>
     </row>
     <row r="45">
@@ -1704,7 +1704,7 @@
         <v>-0.005</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4631578947368421</v>
       </c>
     </row>
     <row r="46">
@@ -1732,7 +1732,7 @@
         <v>-0.003</v>
       </c>
       <c r="H46" t="n">
-        <v>0.46875</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="47">
@@ -1760,7 +1760,7 @@
         <v>-0.003</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4791666666666666</v>
+        <v>0.4842105263157895</v>
       </c>
     </row>
     <row r="48">
@@ -1788,7 +1788,7 @@
         <v>-0.003</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4895833333333333</v>
+        <v>0.4947368421052631</v>
       </c>
     </row>
     <row r="49">
@@ -1816,7 +1816,7 @@
         <v>-0.003</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5</v>
+        <v>0.5052631578947369</v>
       </c>
     </row>
     <row r="50">
@@ -1844,7 +1844,7 @@
         <v>-0.003</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5104166666666666</v>
+        <v>0.5157894736842105</v>
       </c>
     </row>
     <row r="51">
@@ -1872,7 +1872,7 @@
         <v>-0.003</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5208333333333333</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="52">
@@ -1900,7 +1900,7 @@
         <v>-0.003</v>
       </c>
       <c r="H52" t="n">
-        <v>0.53125</v>
+        <v>0.5368421052631579</v>
       </c>
     </row>
     <row r="53">
@@ -1928,7 +1928,7 @@
         <v>-0.003</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5473684210526316</v>
       </c>
     </row>
     <row r="54">
@@ -1956,7 +1956,7 @@
         <v>-0.003</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5520833333333333</v>
+        <v>0.5578947368421052</v>
       </c>
     </row>
     <row r="55">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5625</v>
+        <v>0.5684210526315789</v>
       </c>
     </row>
     <row r="56">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5729166666666666</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="57">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5894736842105263</v>
       </c>
     </row>
     <row r="58">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.59375</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.6105263157894737</v>
       </c>
     </row>
     <row r="60">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6145833333333333</v>
+        <v>0.6210526315789473</v>
       </c>
     </row>
     <row r="61">
@@ -2152,7 +2152,7 @@
         <v>0.003</v>
       </c>
       <c r="H61" t="n">
-        <v>0.625</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="62">
@@ -2180,7 +2180,7 @@
         <v>0.003</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.6421052631578947</v>
       </c>
     </row>
     <row r="63">
@@ -2208,7 +2208,7 @@
         <v>0.005</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6458333333333333</v>
+        <v>0.6526315789473685</v>
       </c>
     </row>
     <row r="64">
@@ -2236,7 +2236,7 @@
         <v>0.005</v>
       </c>
       <c r="H64" t="n">
-        <v>0.65625</v>
+        <v>0.6631578947368421</v>
       </c>
     </row>
     <row r="65">
@@ -2264,7 +2264,7 @@
         <v>0.007</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6736842105263158</v>
       </c>
     </row>
     <row r="66">
@@ -2292,7 +2292,7 @@
         <v>0.007</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6770833333333333</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="67">
@@ -2320,7 +2320,7 @@
         <v>0.01</v>
       </c>
       <c r="H67" t="n">
-        <v>0.6875</v>
+        <v>0.6947368421052631</v>
       </c>
     </row>
     <row r="68">
@@ -2348,7 +2348,7 @@
         <v>0.01</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.7052631578947368</v>
       </c>
     </row>
     <row r="69">
@@ -2376,7 +2376,7 @@
         <v>0.01</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.7157894736842105</v>
       </c>
     </row>
     <row r="70">
@@ -2404,7 +2404,7 @@
         <v>0.01</v>
       </c>
       <c r="H70" t="n">
-        <v>0.71875</v>
+        <v>0.7263157894736842</v>
       </c>
     </row>
     <row r="71">
@@ -2432,7 +2432,7 @@
         <v>0.013</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="72">
@@ -2460,7 +2460,7 @@
         <v>0.013</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7395833333333333</v>
+        <v>0.7473684210526316</v>
       </c>
     </row>
     <row r="73">
@@ -2488,7 +2488,7 @@
         <v>0.013</v>
       </c>
       <c r="H73" t="n">
-        <v>0.75</v>
+        <v>0.7578947368421053</v>
       </c>
     </row>
     <row r="74">
@@ -2516,7 +2516,7 @@
         <v>0.015</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.7684210526315789</v>
       </c>
     </row>
     <row r="75">
@@ -2544,7 +2544,7 @@
         <v>0.015</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7708333333333333</v>
+        <v>0.7789473684210526</v>
       </c>
     </row>
     <row r="76">
@@ -2572,7 +2572,7 @@
         <v>0.015</v>
       </c>
       <c r="H76" t="n">
-        <v>0.78125</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="77">
@@ -2600,7 +2600,7 @@
         <v>0.015</v>
       </c>
       <c r="H77" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -2628,7 +2628,7 @@
         <v>0.015</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8020833333333333</v>
+        <v>0.8105263157894737</v>
       </c>
     </row>
     <row r="79">
@@ -2656,7 +2656,7 @@
         <v>0.015</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8125</v>
+        <v>0.8210526315789474</v>
       </c>
     </row>
     <row r="80">
@@ -2684,7 +2684,7 @@
         <v>0.015</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8229166666666666</v>
+        <v>0.8315789473684211</v>
       </c>
     </row>
     <row r="81">
@@ -2712,7 +2712,7 @@
         <v>0.015</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="82">
@@ -2740,7 +2740,7 @@
         <v>0.015</v>
       </c>
       <c r="H82" t="n">
-        <v>0.84375</v>
+        <v>0.8526315789473684</v>
       </c>
     </row>
     <row r="83">
@@ -2768,7 +2768,7 @@
         <v>0.018</v>
       </c>
       <c r="H83" t="n">
-        <v>0.8541666666666666</v>
+        <v>0.8631578947368421</v>
       </c>
     </row>
     <row r="84">
@@ -2796,7 +2796,7 @@
         <v>0.018</v>
       </c>
       <c r="H84" t="n">
-        <v>0.8645833333333333</v>
+        <v>0.8736842105263157</v>
       </c>
     </row>
     <row r="85">
@@ -2824,7 +2824,7 @@
         <v>0.018</v>
       </c>
       <c r="H85" t="n">
-        <v>0.875</v>
+        <v>0.8842105263157894</v>
       </c>
     </row>
     <row r="86">
@@ -2852,7 +2852,7 @@
         <v>0.02</v>
       </c>
       <c r="H86" t="n">
-        <v>0.8854166666666666</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="87">
@@ -2880,7 +2880,7 @@
         <v>0.02</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.9052631578947368</v>
       </c>
     </row>
     <row r="88">
@@ -2908,7 +2908,7 @@
         <v>0.02</v>
       </c>
       <c r="H88" t="n">
-        <v>0.90625</v>
+        <v>0.9157894736842105</v>
       </c>
     </row>
     <row r="89">
@@ -2936,7 +2936,7 @@
         <v>0.022</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9263157894736842</v>
       </c>
     </row>
     <row r="90">
@@ -2964,7 +2964,7 @@
         <v>0.025</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9270833333333333</v>
+        <v>0.9368421052631579</v>
       </c>
     </row>
     <row r="91">
@@ -2992,7 +2992,7 @@
         <v>0.025</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9375</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="92">
@@ -3020,7 +3020,7 @@
         <v>0.028</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9479166666666666</v>
+        <v>0.9578947368421052</v>
       </c>
     </row>
     <row r="93">
@@ -3048,7 +3048,7 @@
         <v>0.03</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.968421052631579</v>
       </c>
     </row>
     <row r="94">
@@ -3076,7 +3076,7 @@
         <v>0.03</v>
       </c>
       <c r="H94" t="n">
-        <v>0.96875</v>
+        <v>0.9789473684210526</v>
       </c>
     </row>
     <row r="95">
@@ -3104,7 +3104,7 @@
         <v>0.033</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9894736842105263</v>
       </c>
     </row>
     <row r="96">
@@ -3132,7 +3132,7 @@
         <v>0.043</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9895833333333333</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/stats.xlsx
+++ b/xlsx/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>ecdf</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>norm_sample</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -502,6 +507,9 @@
       <c r="H2" t="n">
         <v>0.01052631578947368</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.06884756893673077</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -530,6 +538,9 @@
       <c r="H3" t="n">
         <v>0.02105263157894737</v>
       </c>
+      <c r="I3" t="n">
+        <v>-0.05747885415475073</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -558,6 +569,9 @@
       <c r="H4" t="n">
         <v>0.03157894736842105</v>
       </c>
+      <c r="I4" t="n">
+        <v>-0.05409011469717837</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -586,6 +600,9 @@
       <c r="H5" t="n">
         <v>0.04210526315789474</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.04893597275464123</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -614,6 +631,9 @@
       <c r="H6" t="n">
         <v>0.05263157894736842</v>
       </c>
+      <c r="I6" t="n">
+        <v>-0.04270437276595071</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -642,6 +662,9 @@
       <c r="H7" t="n">
         <v>0.06315789473684211</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.04264752826659474</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,6 +693,9 @@
       <c r="H8" t="n">
         <v>0.07368421052631578</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.04045763297614108</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -698,6 +724,9 @@
       <c r="H9" t="n">
         <v>0.08421052631578947</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.03435591152980129</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -726,6 +755,9 @@
       <c r="H10" t="n">
         <v>0.09473684210526316</v>
       </c>
+      <c r="I10" t="n">
+        <v>-0.03290726718297413</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -754,6 +786,9 @@
       <c r="H11" t="n">
         <v>0.1052631578947368</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.03104092188805441</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -782,6 +817,9 @@
       <c r="H12" t="n">
         <v>0.1157894736842105</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.028556055836795</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -810,6 +848,9 @@
       <c r="H13" t="n">
         <v>0.1263157894736842</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.02679669085194228</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -838,6 +879,9 @@
       <c r="H14" t="n">
         <v>0.1368421052631579</v>
       </c>
+      <c r="I14" t="n">
+        <v>-0.02643806212275866</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -866,6 +910,9 @@
       <c r="H15" t="n">
         <v>0.1473684210526316</v>
       </c>
+      <c r="I15" t="n">
+        <v>-0.02552513068504525</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -894,6 +941,9 @@
       <c r="H16" t="n">
         <v>0.1578947368421053</v>
       </c>
+      <c r="I16" t="n">
+        <v>-0.02316557483509203</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -922,6 +972,9 @@
       <c r="H17" t="n">
         <v>0.1684210526315789</v>
       </c>
+      <c r="I17" t="n">
+        <v>-0.02313972646396837</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -950,6 +1003,9 @@
       <c r="H18" t="n">
         <v>0.1789473684210526</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.0212821417883994</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -978,6 +1034,9 @@
       <c r="H19" t="n">
         <v>0.1894736842105263</v>
       </c>
+      <c r="I19" t="n">
+        <v>-0.02017259528916622</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1006,6 +1065,9 @@
       <c r="H20" t="n">
         <v>0.2</v>
       </c>
+      <c r="I20" t="n">
+        <v>-0.01974285654372802</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1034,6 +1096,9 @@
       <c r="H21" t="n">
         <v>0.2105263157894737</v>
       </c>
+      <c r="I21" t="n">
+        <v>-0.0187100333554594</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1062,6 +1127,9 @@
       <c r="H22" t="n">
         <v>0.2210526315789474</v>
       </c>
+      <c r="I22" t="n">
+        <v>-0.01794010598874173</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1090,6 +1158,9 @@
       <c r="H23" t="n">
         <v>0.2315789473684211</v>
       </c>
+      <c r="I23" t="n">
+        <v>-0.01733577913495614</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1118,6 +1189,9 @@
       <c r="H24" t="n">
         <v>0.2421052631578947</v>
       </c>
+      <c r="I24" t="n">
+        <v>-0.01642362578693973</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1146,6 +1220,9 @@
       <c r="H25" t="n">
         <v>0.2526315789473684</v>
       </c>
+      <c r="I25" t="n">
+        <v>-0.0159266714797445</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1174,6 +1251,9 @@
       <c r="H26" t="n">
         <v>0.2631578947368421</v>
       </c>
+      <c r="I26" t="n">
+        <v>-0.01485750084075787</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1202,6 +1282,9 @@
       <c r="H27" t="n">
         <v>0.2736842105263158</v>
       </c>
+      <c r="I27" t="n">
+        <v>-0.01472186685021784</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1230,6 +1313,9 @@
       <c r="H28" t="n">
         <v>0.2842105263157895</v>
       </c>
+      <c r="I28" t="n">
+        <v>-0.01398161163124536</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1258,6 +1344,9 @@
       <c r="H29" t="n">
         <v>0.2947368421052631</v>
       </c>
+      <c r="I29" t="n">
+        <v>-0.01358951627189297</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1286,6 +1375,9 @@
       <c r="H30" t="n">
         <v>0.3052631578947368</v>
       </c>
+      <c r="I30" t="n">
+        <v>-0.01331279720686511</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1314,6 +1406,9 @@
       <c r="H31" t="n">
         <v>0.3157894736842105</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.01295535249349514</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1342,6 +1437,9 @@
       <c r="H32" t="n">
         <v>0.3263157894736842</v>
       </c>
+      <c r="I32" t="n">
+        <v>-0.01116226779421779</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1370,6 +1468,9 @@
       <c r="H33" t="n">
         <v>0.3368421052631579</v>
       </c>
+      <c r="I33" t="n">
+        <v>-0.01111284894134258</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1398,6 +1499,9 @@
       <c r="H34" t="n">
         <v>0.3473684210526315</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.01022384370548639</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1426,6 +1530,9 @@
       <c r="H35" t="n">
         <v>0.3578947368421053</v>
       </c>
+      <c r="I35" t="n">
+        <v>-0.01015481704480267</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1454,6 +1561,9 @@
       <c r="H36" t="n">
         <v>0.3684210526315789</v>
       </c>
+      <c r="I36" t="n">
+        <v>-0.01008915410924837</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1482,6 +1592,9 @@
       <c r="H37" t="n">
         <v>0.3789473684210526</v>
       </c>
+      <c r="I37" t="n">
+        <v>-0.009257830926931814</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1510,6 +1623,9 @@
       <c r="H38" t="n">
         <v>0.3894736842105263</v>
       </c>
+      <c r="I38" t="n">
+        <v>-0.008239367445834081</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1538,6 +1654,9 @@
       <c r="H39" t="n">
         <v>0.4</v>
       </c>
+      <c r="I39" t="n">
+        <v>-0.008234710748315281</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1566,6 +1685,9 @@
       <c r="H40" t="n">
         <v>0.4105263157894737</v>
       </c>
+      <c r="I40" t="n">
+        <v>-0.006187766520348362</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1594,6 +1716,9 @@
       <c r="H41" t="n">
         <v>0.4210526315789473</v>
       </c>
+      <c r="I41" t="n">
+        <v>-0.004802629570806549</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1622,6 +1747,9 @@
       <c r="H42" t="n">
         <v>0.4315789473684211</v>
       </c>
+      <c r="I42" t="n">
+        <v>-0.004324588592705947</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1650,6 +1778,9 @@
       <c r="H43" t="n">
         <v>0.4421052631578947</v>
       </c>
+      <c r="I43" t="n">
+        <v>-0.003274872137717096</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1678,6 +1809,9 @@
       <c r="H44" t="n">
         <v>0.4526315789473684</v>
       </c>
+      <c r="I44" t="n">
+        <v>-0.002664264109184237</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1706,6 +1840,9 @@
       <c r="H45" t="n">
         <v>0.4631578947368421</v>
       </c>
+      <c r="I45" t="n">
+        <v>-0.002644876547946708</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1734,6 +1871,9 @@
       <c r="H46" t="n">
         <v>0.4736842105263158</v>
       </c>
+      <c r="I46" t="n">
+        <v>-0.00257317950560736</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1762,6 +1902,9 @@
       <c r="H47" t="n">
         <v>0.4842105263157895</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.001938412156323156</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1790,6 +1933,9 @@
       <c r="H48" t="n">
         <v>0.4947368421052631</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.0009821958358117336</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1818,6 +1964,9 @@
       <c r="H49" t="n">
         <v>0.5052631578947369</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.0004444190928998785</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1846,6 +1995,9 @@
       <c r="H50" t="n">
         <v>0.5157894736842105</v>
       </c>
+      <c r="I50" t="n">
+        <v>0.0003149312196317896</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1874,6 +2026,9 @@
       <c r="H51" t="n">
         <v>0.5263157894736842</v>
       </c>
+      <c r="I51" t="n">
+        <v>0.001734303913876858</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1902,6 +2057,9 @@
       <c r="H52" t="n">
         <v>0.5368421052631579</v>
       </c>
+      <c r="I52" t="n">
+        <v>0.001905627237624808</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1930,6 +2088,9 @@
       <c r="H53" t="n">
         <v>0.5473684210526316</v>
       </c>
+      <c r="I53" t="n">
+        <v>0.002060168879335924</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1958,6 +2119,9 @@
       <c r="H54" t="n">
         <v>0.5578947368421052</v>
       </c>
+      <c r="I54" t="n">
+        <v>0.002785159436380215</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1986,6 +2150,9 @@
       <c r="H55" t="n">
         <v>0.5684210526315789</v>
       </c>
+      <c r="I55" t="n">
+        <v>0.003175512489880537</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2014,6 +2181,9 @@
       <c r="H56" t="n">
         <v>0.5789473684210527</v>
       </c>
+      <c r="I56" t="n">
+        <v>0.003453511046511433</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2042,6 +2212,9 @@
       <c r="H57" t="n">
         <v>0.5894736842105263</v>
       </c>
+      <c r="I57" t="n">
+        <v>0.004233166909151772</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2070,6 +2243,9 @@
       <c r="H58" t="n">
         <v>0.6</v>
       </c>
+      <c r="I58" t="n">
+        <v>0.00437837429349911</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2098,6 +2274,9 @@
       <c r="H59" t="n">
         <v>0.6105263157894737</v>
       </c>
+      <c r="I59" t="n">
+        <v>0.006393850650235813</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2126,6 +2305,9 @@
       <c r="H60" t="n">
         <v>0.6210526315789473</v>
       </c>
+      <c r="I60" t="n">
+        <v>0.007030265213488995</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2154,6 +2336,9 @@
       <c r="H61" t="n">
         <v>0.631578947368421</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.007347836654934577</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2182,6 +2367,9 @@
       <c r="H62" t="n">
         <v>0.6421052631578947</v>
       </c>
+      <c r="I62" t="n">
+        <v>0.007643478670453655</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2210,6 +2398,9 @@
       <c r="H63" t="n">
         <v>0.6526315789473685</v>
       </c>
+      <c r="I63" t="n">
+        <v>0.007726608419276571</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2238,6 +2429,9 @@
       <c r="H64" t="n">
         <v>0.6631578947368421</v>
       </c>
+      <c r="I64" t="n">
+        <v>0.008084802244504889</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2266,6 +2460,9 @@
       <c r="H65" t="n">
         <v>0.6736842105263158</v>
       </c>
+      <c r="I65" t="n">
+        <v>0.008521509237455907</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2294,6 +2491,9 @@
       <c r="H66" t="n">
         <v>0.6842105263157895</v>
       </c>
+      <c r="I66" t="n">
+        <v>0.009073449296860367</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2322,6 +2522,9 @@
       <c r="H67" t="n">
         <v>0.6947368421052631</v>
       </c>
+      <c r="I67" t="n">
+        <v>0.009992845817947507</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2350,6 +2553,9 @@
       <c r="H68" t="n">
         <v>0.7052631578947368</v>
       </c>
+      <c r="I68" t="n">
+        <v>0.01026845215075704</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2378,6 +2584,9 @@
       <c r="H69" t="n">
         <v>0.7157894736842105</v>
       </c>
+      <c r="I69" t="n">
+        <v>0.01099613608185137</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2406,6 +2615,9 @@
       <c r="H70" t="n">
         <v>0.7263157894736842</v>
       </c>
+      <c r="I70" t="n">
+        <v>0.0141101164532052</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2434,6 +2646,9 @@
       <c r="H71" t="n">
         <v>0.7368421052631579</v>
       </c>
+      <c r="I71" t="n">
+        <v>0.01520595310196653</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2462,6 +2677,9 @@
       <c r="H72" t="n">
         <v>0.7473684210526316</v>
       </c>
+      <c r="I72" t="n">
+        <v>0.01545001307148072</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2490,6 +2708,9 @@
       <c r="H73" t="n">
         <v>0.7578947368421053</v>
       </c>
+      <c r="I73" t="n">
+        <v>0.01579339777863938</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2518,6 +2739,9 @@
       <c r="H74" t="n">
         <v>0.7684210526315789</v>
       </c>
+      <c r="I74" t="n">
+        <v>0.01605276762101358</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2546,6 +2770,9 @@
       <c r="H75" t="n">
         <v>0.7789473684210526</v>
       </c>
+      <c r="I75" t="n">
+        <v>0.01631449483921896</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2574,6 +2801,9 @@
       <c r="H76" t="n">
         <v>0.7894736842105263</v>
       </c>
+      <c r="I76" t="n">
+        <v>0.01883576485206128</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2602,6 +2832,9 @@
       <c r="H77" t="n">
         <v>0.7999999999999999</v>
       </c>
+      <c r="I77" t="n">
+        <v>0.01944224292139983</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2630,6 +2863,9 @@
       <c r="H78" t="n">
         <v>0.8105263157894737</v>
       </c>
+      <c r="I78" t="n">
+        <v>0.01947556215657805</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2658,6 +2894,9 @@
       <c r="H79" t="n">
         <v>0.8210526315789474</v>
       </c>
+      <c r="I79" t="n">
+        <v>0.02083281027531672</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2686,6 +2925,9 @@
       <c r="H80" t="n">
         <v>0.8315789473684211</v>
       </c>
+      <c r="I80" t="n">
+        <v>0.02125990775286905</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2714,6 +2956,9 @@
       <c r="H81" t="n">
         <v>0.8421052631578947</v>
       </c>
+      <c r="I81" t="n">
+        <v>0.02204494578394293</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2742,6 +2987,9 @@
       <c r="H82" t="n">
         <v>0.8526315789473684</v>
       </c>
+      <c r="I82" t="n">
+        <v>0.02435477551692228</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2770,6 +3018,9 @@
       <c r="H83" t="n">
         <v>0.8631578947368421</v>
       </c>
+      <c r="I83" t="n">
+        <v>0.0270170088350674</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2798,6 +3049,9 @@
       <c r="H84" t="n">
         <v>0.8736842105263157</v>
       </c>
+      <c r="I84" t="n">
+        <v>0.02842940002001671</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2826,6 +3080,9 @@
       <c r="H85" t="n">
         <v>0.8842105263157894</v>
       </c>
+      <c r="I85" t="n">
+        <v>0.02846059321963981</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2854,6 +3111,9 @@
       <c r="H86" t="n">
         <v>0.8947368421052632</v>
       </c>
+      <c r="I86" t="n">
+        <v>0.02905969938468173</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2882,6 +3142,9 @@
       <c r="H87" t="n">
         <v>0.9052631578947368</v>
       </c>
+      <c r="I87" t="n">
+        <v>0.03014550406742116</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2910,6 +3173,9 @@
       <c r="H88" t="n">
         <v>0.9157894736842105</v>
       </c>
+      <c r="I88" t="n">
+        <v>0.03038788186466854</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2938,6 +3204,9 @@
       <c r="H89" t="n">
         <v>0.9263157894736842</v>
       </c>
+      <c r="I89" t="n">
+        <v>0.03053181655111144</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2966,6 +3235,9 @@
       <c r="H90" t="n">
         <v>0.9368421052631579</v>
       </c>
+      <c r="I90" t="n">
+        <v>0.03062073717900662</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2994,6 +3266,9 @@
       <c r="H91" t="n">
         <v>0.9473684210526315</v>
       </c>
+      <c r="I91" t="n">
+        <v>0.03212137827295825</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3022,6 +3297,9 @@
       <c r="H92" t="n">
         <v>0.9578947368421052</v>
       </c>
+      <c r="I92" t="n">
+        <v>0.03230174570592321</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3050,6 +3328,9 @@
       <c r="H93" t="n">
         <v>0.968421052631579</v>
       </c>
+      <c r="I93" t="n">
+        <v>0.03241406151680494</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3078,6 +3359,9 @@
       <c r="H94" t="n">
         <v>0.9789473684210526</v>
       </c>
+      <c r="I94" t="n">
+        <v>0.0443311401490801</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3106,6 +3390,9 @@
       <c r="H95" t="n">
         <v>0.9894736842105263</v>
       </c>
+      <c r="I95" t="n">
+        <v>0.04517453033017867</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3133,6 +3420,9 @@
       </c>
       <c r="H96" t="n">
         <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.04715823800072949</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/stats.xlsx
+++ b/xlsx/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\top kek\Desktop\Python\2_External APIs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5305A151-AE58-4DD3-B972-23B2C47C1B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454EE39-2C6D-4D8E-8948-0F63972B0740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24468" yWindow="-1308" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>date</t>
   </si>
@@ -40,7 +40,16 @@
     <t>bin</t>
   </si>
   <si>
+    <t>percentile</t>
+  </si>
+  <si>
     <t>ecdf</t>
+  </si>
+  <si>
+    <t>z_score</t>
+  </si>
+  <si>
+    <t>theo_percentile</t>
   </si>
   <si>
     <t>norm_sample</t>
@@ -387,12 +396,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,17 +739,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,14 +778,22 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>492.46</v>
@@ -793,19 +810,28 @@
       <c r="G2">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
+        <v>1.041666666666667E-2</v>
+      </c>
+      <c r="I2">
         <v>1.0526315789473681E-2</v>
       </c>
-      <c r="I2">
-        <v>-6.4175435023874267E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>-6.3337365525850693</v>
+      </c>
+      <c r="K2">
+        <v>1.196469842998777E-10</v>
+      </c>
+      <c r="L2">
+        <v>-4.8954156752951117E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>546.66</v>
@@ -822,19 +848,28 @@
       <c r="G3">
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
+        <v>2.0833333333333329E-2</v>
+      </c>
+      <c r="I3">
         <v>2.1052631578947371E-2</v>
       </c>
-      <c r="I3">
-        <v>-5.2955630085313357E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>-3.2793032496387049</v>
+      </c>
+      <c r="K3">
+        <v>5.2031872880998922E-4</v>
+      </c>
+      <c r="L3">
+        <v>-4.7974201027187358E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>544.84</v>
@@ -851,19 +886,28 @@
       <c r="G4">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I4">
         <v>3.1578947368421047E-2</v>
       </c>
-      <c r="I4">
-        <v>-4.9169485529969623E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>-1.7288751995796841</v>
+      </c>
+      <c r="K4">
+        <v>4.1915716791855663E-2</v>
+      </c>
+      <c r="L4">
+        <v>-4.413702482244878E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>607.14</v>
@@ -880,19 +924,28 @@
       <c r="G5">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
+        <v>4.1666666666666657E-2</v>
+      </c>
+      <c r="I5">
         <v>4.2105263157894743E-2</v>
       </c>
-      <c r="I5">
-        <v>-4.8789715377037843E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>-1.5643109014187619</v>
+      </c>
+      <c r="K5">
+        <v>5.8872286620204002E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.9530068008569737E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>611.84</v>
@@ -909,19 +962,28 @@
       <c r="G6">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
+        <v>5.2083333333333343E-2</v>
+      </c>
+      <c r="I6">
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="I6">
-        <v>-4.6519475245084652E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>-0.9993081530294724</v>
+      </c>
+      <c r="K6">
+        <v>0.15882271855408089</v>
+      </c>
+      <c r="L6">
+        <v>-3.8649503113930693E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>590.44000000000005</v>
@@ -938,19 +1000,28 @@
       <c r="G7">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I7">
         <v>6.3157894736842107E-2</v>
       </c>
-      <c r="I7">
-        <v>-4.4921085474249042E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>-0.95511824083606645</v>
+      </c>
+      <c r="K7">
+        <v>0.1697589527391869</v>
+      </c>
+      <c r="L7">
+        <v>-3.7427146714569037E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>499.52</v>
@@ -967,19 +1038,28 @@
       <c r="G8">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="I8">
         <v>7.3684210526315783E-2</v>
       </c>
-      <c r="I8">
-        <v>-4.4208343298194418E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>-0.92948431269796572</v>
+      </c>
+      <c r="K8">
+        <v>0.17631907566806679</v>
+      </c>
+      <c r="L8">
+        <v>-3.6304917870997648E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>462.83</v>
@@ -996,19 +1076,28 @@
       <c r="G9">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I9">
         <v>8.4210526315789472E-2</v>
       </c>
-      <c r="I9">
-        <v>-4.1713860807450091E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>-0.8715346659571136</v>
+      </c>
+      <c r="K9">
+        <v>0.19173114315970871</v>
+      </c>
+      <c r="L9">
+        <v>-3.1867974065452567E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>474.09</v>
@@ -1025,19 +1114,28 @@
       <c r="G10">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
+        <v>9.375E-2</v>
+      </c>
+      <c r="I10">
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="I10">
-        <v>-3.6404014235838472E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>-0.84458009602150141</v>
+      </c>
+      <c r="K10">
+        <v>0.1991726629566789</v>
+      </c>
+      <c r="L10">
+        <v>-3.053550607995335E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>487.11</v>
@@ -1054,19 +1152,28 @@
       <c r="G11">
         <v>-0.02</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="I11">
         <v>0.10526315789473679</v>
       </c>
-      <c r="I11">
-        <v>-3.1698310956742123E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>-0.7945585833826162</v>
+      </c>
+      <c r="K11">
+        <v>0.21343515918469549</v>
+      </c>
+      <c r="L11">
+        <v>-2.6114163169521129E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>465.02</v>
@@ -1083,19 +1190,28 @@
       <c r="G12">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
+        <v>0.1145833333333333</v>
+      </c>
+      <c r="I12">
         <v>0.1157894736842105</v>
       </c>
-      <c r="I12">
-        <v>-3.1371466814305929E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>-0.67561704782837517</v>
+      </c>
+      <c r="K12">
+        <v>0.24964190745308451</v>
+      </c>
+      <c r="L12">
+        <v>-2.503286608780431E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>601.89</v>
@@ -1112,19 +1228,28 @@
       <c r="G13">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
+        <v>0.125</v>
+      </c>
+      <c r="I13">
         <v>0.12631578947368419</v>
       </c>
-      <c r="I13">
-        <v>-3.0892330651006619E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>-0.63199301109821482</v>
+      </c>
+      <c r="K13">
+        <v>0.26369572203369518</v>
+      </c>
+      <c r="L13">
+        <v>-2.302966330952682E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>617.78</v>
@@ -1141,19 +1266,28 @@
       <c r="G14">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
+        <v>0.13541666666666671</v>
+      </c>
+      <c r="I14">
         <v>0.1368421052631579</v>
       </c>
-      <c r="I14">
-        <v>-3.0091834769979561E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>-0.62972119945499694</v>
+      </c>
+      <c r="K14">
+        <v>0.26443850497705368</v>
+      </c>
+      <c r="L14">
+        <v>-2.270543231299536E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>511.25</v>
@@ -1170,19 +1304,28 @@
       <c r="G15">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
+        <v>0.14583333333333329</v>
+      </c>
+      <c r="I15">
         <v>0.14736842105263159</v>
       </c>
-      <c r="I15">
-        <v>-2.6918596625078041E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>-0.58479500868126399</v>
+      </c>
+      <c r="K15">
+        <v>0.27934278045921518</v>
+      </c>
+      <c r="L15">
+        <v>-2.1968985945527399E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>475.95</v>
@@ -1199,19 +1342,28 @@
       <c r="G16">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
+        <v>0.15625</v>
+      </c>
+      <c r="I16">
         <v>0.15789473684210531</v>
       </c>
-      <c r="I16">
-        <v>-2.5661285578657999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>-0.56806186806260717</v>
+      </c>
+      <c r="K16">
+        <v>0.28499647948375439</v>
+      </c>
+      <c r="L16">
+        <v>-2.1452145323920851E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>571.79</v>
@@ -1228,19 +1380,28 @@
       <c r="G17">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="I17">
         <v>0.16842105263157889</v>
       </c>
-      <c r="I17">
-        <v>-2.542828142620375E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>-0.54385343509271911</v>
+      </c>
+      <c r="K17">
+        <v>0.29327116720434621</v>
+      </c>
+      <c r="L17">
+        <v>-2.1072729052156611E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>552.49</v>
@@ -1257,19 +1418,28 @@
       <c r="G18">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
+        <v>0.17708333333333329</v>
+      </c>
+      <c r="I18">
         <v>0.1789473684210526</v>
       </c>
-      <c r="I18">
-        <v>-2.4492004450155369E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>-0.54303411650384492</v>
+      </c>
+      <c r="K18">
+        <v>0.29355315643582858</v>
+      </c>
+      <c r="L18">
+        <v>-2.020588597439868E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>613.92999999999995</v>
@@ -1286,19 +1456,28 @@
       <c r="G19">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
+        <v>0.1875</v>
+      </c>
+      <c r="I19">
         <v>0.18947368421052629</v>
       </c>
-      <c r="I19">
-        <v>-2.1245957792670789E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>-0.52701329520043738</v>
+      </c>
+      <c r="K19">
+        <v>0.29909217792385429</v>
+      </c>
+      <c r="L19">
+        <v>-2.0191600305676589E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>603.59</v>
@@ -1315,19 +1494,28 @@
       <c r="G20">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
+        <v>0.19791666666666671</v>
+      </c>
+      <c r="I20">
         <v>0.2</v>
       </c>
-      <c r="I20">
-        <v>-2.1229247233873628E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>-0.48817724549825298</v>
+      </c>
+      <c r="K20">
+        <v>0.31271215023886739</v>
+      </c>
+      <c r="L20">
+        <v>-1.9693883429167679E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>482.65</v>
@@ -1344,19 +1532,28 @@
       <c r="G21">
         <v>-0.01</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
+        <v>0.20833333333333329</v>
+      </c>
+      <c r="I21">
         <v>0.2105263157894737</v>
       </c>
-      <c r="I21">
-        <v>-2.1151083927297559E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>-0.40641542828879129</v>
+      </c>
+      <c r="K21">
+        <v>0.3422186927294868</v>
+      </c>
+      <c r="L21">
+        <v>-1.8840127984466309E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>487.22</v>
@@ -1373,19 +1570,28 @@
       <c r="G22">
         <v>-0.01</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
+        <v>0.21875</v>
+      </c>
+      <c r="I22">
         <v>0.22105263157894739</v>
       </c>
-      <c r="I22">
-        <v>-1.9769766414644091E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>-0.39120955896289072</v>
+      </c>
+      <c r="K22">
+        <v>0.34782117160242898</v>
+      </c>
+      <c r="L22">
+        <v>-1.8529879325939101E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>597.17999999999995</v>
@@ -1402,19 +1608,28 @@
       <c r="G23">
         <v>-0.01</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
+        <v>0.22916666666666671</v>
+      </c>
+      <c r="I23">
         <v>0.23157894736842111</v>
       </c>
-      <c r="I23">
-        <v>-1.808579868541554E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>-0.38232066228023048</v>
+      </c>
+      <c r="K23">
+        <v>0.35111176520830489</v>
+      </c>
+      <c r="L23">
+        <v>-1.6789264051158031E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>573.54999999999995</v>
@@ -1431,19 +1646,28 @@
       <c r="G24">
         <v>-0.01</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
+        <v>0.23958333333333329</v>
+      </c>
+      <c r="I24">
         <v>0.24210526315789471</v>
       </c>
-      <c r="I24">
-        <v>-1.804413947119226E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>-0.33965210006894292</v>
+      </c>
+      <c r="K24">
+        <v>0.36705926896184587</v>
+      </c>
+      <c r="L24">
+        <v>-1.6735487562654541E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>473.07</v>
@@ -1460,19 +1684,28 @@
       <c r="G25">
         <v>-0.01</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
+        <v>0.25</v>
+      </c>
+      <c r="I25">
         <v>0.25263157894736837</v>
       </c>
-      <c r="I25">
-        <v>-1.7892658845718501E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>-0.32862149092111131</v>
+      </c>
+      <c r="K25">
+        <v>0.37122090103333782</v>
+      </c>
+      <c r="L25">
+        <v>-1.545502214944568E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>541.91</v>
@@ -1489,19 +1722,28 @@
       <c r="G26">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="I26">
         <v>0.26315789473684209</v>
       </c>
-      <c r="I26">
-        <v>-1.7611989578247809E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>-0.29722054272556181</v>
+      </c>
+      <c r="K26">
+        <v>0.38314906966126772</v>
+      </c>
+      <c r="L26">
+        <v>-1.492766539304125E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>488.1</v>
@@ -1518,19 +1760,28 @@
       <c r="G27">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="I27">
         <v>0.27368421052631581</v>
       </c>
-      <c r="I27">
-        <v>-1.5631871301290751E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>-0.28761445193992718</v>
+      </c>
+      <c r="K27">
+        <v>0.38682094054019212</v>
+      </c>
+      <c r="L27">
+        <v>-1.3370226889350989E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>470.1</v>
@@ -1547,19 +1798,28 @@
       <c r="G28">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
+        <v>0.28125</v>
+      </c>
+      <c r="I28">
         <v>0.28421052631578952</v>
       </c>
-      <c r="I28">
-        <v>-1.515803912168045E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>-0.28520026330007081</v>
+      </c>
+      <c r="K28">
+        <v>0.38774535932504522</v>
+      </c>
+      <c r="L28">
+        <v>-1.271766561534241E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>567.04999999999995</v>
@@ -1576,19 +1836,28 @@
       <c r="G29">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I29">
         <v>0.29473684210526307</v>
       </c>
-      <c r="I29">
-        <v>-1.5123963339801949E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>-0.27963755175298632</v>
+      </c>
+      <c r="K29">
+        <v>0.38987779692467361</v>
+      </c>
+      <c r="L29">
+        <v>-1.187650405589563E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>551.69000000000005</v>
@@ -1605,19 +1874,28 @@
       <c r="G30">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="I30">
         <v>0.30526315789473679</v>
       </c>
-      <c r="I30">
-        <v>-1.414909926046702E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>-0.25910473525960692</v>
+      </c>
+      <c r="K30">
+        <v>0.39777721566284457</v>
+      </c>
+      <c r="L30">
+        <v>-1.102263333843692E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>473.44</v>
@@ -1634,19 +1912,28 @@
       <c r="G31">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
+        <v>0.3125</v>
+      </c>
+      <c r="I31">
         <v>0.31578947368421051</v>
       </c>
-      <c r="I31">
-        <v>-1.3855621710190591E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>-0.25425506171340773</v>
+      </c>
+      <c r="K31">
+        <v>0.39964925737298851</v>
+      </c>
+      <c r="L31">
+        <v>-9.8214155137581194E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>630.5</v>
@@ -1663,19 +1950,28 @@
       <c r="G32">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="I32">
         <v>0.32631578947368423</v>
       </c>
-      <c r="I32">
-        <v>-1.2978270371687851E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>-0.21020849655046431</v>
+      </c>
+      <c r="K32">
+        <v>0.41675247421403488</v>
+      </c>
+      <c r="L32">
+        <v>-9.380187731754636E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>504.4</v>
@@ -1692,19 +1988,28 @@
       <c r="G33">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I33">
         <v>0.33684210526315789</v>
       </c>
-      <c r="I33">
-        <v>-1.2417499097395739E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>-0.19232454585465009</v>
+      </c>
+      <c r="K33">
+        <v>0.42374399623665249</v>
+      </c>
+      <c r="L33">
+        <v>-8.5852506644670985E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>538.52</v>
@@ -1721,19 +2026,28 @@
       <c r="G34">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
+        <v>0.34375</v>
+      </c>
+      <c r="I34">
         <v>0.34736842105263149</v>
       </c>
-      <c r="I34">
-        <v>-1.1031102651125869E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>-0.19019290488341001</v>
+      </c>
+      <c r="K34">
+        <v>0.42457898536556599</v>
+      </c>
+      <c r="L34">
+        <v>-8.4375631013342573E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>484.28</v>
@@ -1750,19 +2064,28 @@
       <c r="G35">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I35">
         <v>0.35789473684210532</v>
       </c>
-      <c r="I35">
-        <v>-1.059586698315431E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>-0.18046773564223509</v>
+      </c>
+      <c r="K35">
+        <v>0.42839269086912612</v>
+      </c>
+      <c r="L35">
+        <v>-6.6006164823798029E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>499.21</v>
@@ -1779,19 +2102,28 @@
       <c r="G36">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="I36">
         <v>0.36842105263157893</v>
       </c>
-      <c r="I36">
-        <v>-9.9412703390084414E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>-0.1673729404240944</v>
+      </c>
+      <c r="K36">
+        <v>0.43353830761966089</v>
+      </c>
+      <c r="L36">
+        <v>-6.4941789076331238E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>570.45000000000005</v>
@@ -1808,19 +2140,28 @@
       <c r="G37">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
+        <v>0.375</v>
+      </c>
+      <c r="I37">
         <v>0.37894736842105259</v>
       </c>
-      <c r="I37">
-        <v>-9.750074372096117E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>-0.1528390537124622</v>
+      </c>
+      <c r="K37">
+        <v>0.43926259956047092</v>
+      </c>
+      <c r="L37">
+        <v>-6.064186092819281E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>567.94000000000005</v>
@@ -1837,19 +2178,28 @@
       <c r="G38">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I38">
         <v>0.38947368421052631</v>
       </c>
-      <c r="I38">
-        <v>-9.200094378385211E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>-0.14547210750817441</v>
+      </c>
+      <c r="K38">
+        <v>0.44216906822689311</v>
+      </c>
+      <c r="L38">
+        <v>-5.6979342173959432E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>482.88</v>
@@ -1866,19 +2216,28 @@
       <c r="G39">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I39">
         <v>0.4</v>
       </c>
-      <c r="I39">
-        <v>-9.0812720770375045E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>-0.13897980986518879</v>
+      </c>
+      <c r="K39">
+        <v>0.44473305179584011</v>
+      </c>
+      <c r="L39">
+        <v>-5.3330826055967857E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>502.09</v>
@@ -1895,19 +2254,28 @@
       <c r="G40">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
+        <v>0.40625</v>
+      </c>
+      <c r="I40">
         <v>0.41052631578947368</v>
       </c>
-      <c r="I40">
-        <v>-8.9861900591312084E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>-0.13393989805135401</v>
+      </c>
+      <c r="K40">
+        <v>0.4467250502177435</v>
+      </c>
+      <c r="L40">
+        <v>-5.1359148562429629E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>497.01</v>
@@ -1924,19 +2292,28 @@
       <c r="G41">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I41">
         <v>0.42105263157894729</v>
       </c>
-      <c r="I41">
-        <v>-7.7340161489165152E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>-0.1090601770126275</v>
+      </c>
+      <c r="K41">
+        <v>0.45657738028328848</v>
+      </c>
+      <c r="L41">
+        <v>-4.8074089384594889E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>564.6</v>
@@ -1953,19 +2330,28 @@
       <c r="G42">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="I42">
         <v>0.43157894736842112</v>
       </c>
-      <c r="I42">
-        <v>-7.1859926902450213E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>-0.10527397034111551</v>
+      </c>
+      <c r="K42">
+        <v>0.45807920842199329</v>
+      </c>
+      <c r="L42">
+        <v>-3.8197073327706881E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>485.12</v>
@@ -1982,19 +2368,28 @@
       <c r="G43">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43">
+        <v>0.4375</v>
+      </c>
+      <c r="I43">
         <v>0.44210526315789472</v>
       </c>
-      <c r="I43">
-        <v>-6.6506272140655614E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>-9.4959711712905293E-2</v>
+      </c>
+      <c r="K43">
+        <v>0.46217341382790789</v>
+      </c>
+      <c r="L43">
+        <v>-3.6879589314587949E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>593.70000000000005</v>
@@ -2011,19 +2406,28 @@
       <c r="G44">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I44">
         <v>0.45263157894736838</v>
       </c>
-      <c r="I44">
-        <v>-4.1614639087741573E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>-9.2367166997581629E-2</v>
+      </c>
+      <c r="K44">
+        <v>0.4632031624108251</v>
+      </c>
+      <c r="L44">
+        <v>-3.624041599841948E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>519.14</v>
@@ -2040,19 +2444,28 @@
       <c r="G45">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I45">
         <v>0.4631578947368421</v>
       </c>
-      <c r="I45">
-        <v>-3.0195694522455832E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>-8.8297225097395848E-2</v>
+      </c>
+      <c r="K45">
+        <v>0.46482022219733687</v>
+      </c>
+      <c r="L45">
+        <v>-2.8945842301740781E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>474.45</v>
@@ -2069,19 +2482,28 @@
       <c r="G46">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
+        <v>0.46875</v>
+      </c>
+      <c r="I46">
         <v>0.47368421052631582</v>
       </c>
-      <c r="I46">
-        <v>5.4277726630279854E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>-7.8808518330618652E-2</v>
+      </c>
+      <c r="K46">
+        <v>0.46859246423785489</v>
+      </c>
+      <c r="L46">
+        <v>-2.5235522193997281E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>627.96</v>
@@ -2098,19 +2520,28 @@
       <c r="G47">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I47">
         <v>0.48421052631578948</v>
       </c>
-      <c r="I47">
-        <v>8.395054958947512E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>-7.377397164728608E-2</v>
+      </c>
+      <c r="K47">
+        <v>0.47059511909487661</v>
+      </c>
+      <c r="L47">
+        <v>-2.3115438049994782E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>543.09</v>
@@ -2127,19 +2558,28 @@
       <c r="G48">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I48">
         <v>0.49473684210526309</v>
       </c>
-      <c r="I48">
-        <v>1.091411684590928E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>-5.6695286367169508E-2</v>
+      </c>
+      <c r="K48">
+        <v>0.47739396445602122</v>
+      </c>
+      <c r="L48">
+        <v>-2.0691387394567631E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>473.18</v>
@@ -2156,19 +2596,28 @@
       <c r="G49">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+      <c r="I49">
         <v>0.50526315789473686</v>
       </c>
-      <c r="I49">
-        <v>1.152117359292432E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>-3.3264769939004131E-2</v>
+      </c>
+      <c r="K49">
+        <v>0.48673172385921148</v>
+      </c>
+      <c r="L49">
+        <v>-6.204601705345873E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>492.27</v>
@@ -2185,19 +2634,28 @@
       <c r="G50">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I50">
         <v>0.51578947368421046</v>
       </c>
-      <c r="I50">
-        <v>2.9400743863577162E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>-3.3155375321159093E-2</v>
+      </c>
+      <c r="K50">
+        <v>0.48677534193747918</v>
+      </c>
+      <c r="L50">
+        <v>-5.7048283501702642E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>596.1</v>
@@ -2214,19 +2672,28 @@
       <c r="G51">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="I51">
         <v>0.52631578947368418</v>
       </c>
-      <c r="I51">
-        <v>3.664492201638139E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51">
+        <v>-3.1810385815353129E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.48731163207306982</v>
+      </c>
+      <c r="L51">
+        <v>-5.4420705137046528E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>537.57000000000005</v>
@@ -2243,19 +2710,28 @@
       <c r="G52">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52">
+        <v>0.53125</v>
+      </c>
+      <c r="I52">
         <v>0.5368421052631579</v>
       </c>
-      <c r="I52">
-        <v>4.7566523201653561E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <v>6.6652171745754307E-3</v>
+      </c>
+      <c r="K52">
+        <v>0.50265901725112128</v>
+      </c>
+      <c r="L52">
+        <v>-6.9632553142099643E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>484.28</v>
@@ -2272,19 +2748,28 @@
       <c r="G53">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I53">
         <v>0.54736842105263162</v>
       </c>
-      <c r="I53">
-        <v>5.1836734382490627E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>8.089204302472645E-3</v>
+      </c>
+      <c r="K53">
+        <v>0.50322709041679126</v>
+      </c>
+      <c r="L53">
+        <v>1.386601235010002E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>596.54</v>
@@ -2301,19 +2786,28 @@
       <c r="G54">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I54">
         <v>0.55789473684210522</v>
       </c>
-      <c r="I54">
-        <v>6.2356292732635762E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>1.42783236591882E-2</v>
+      </c>
+      <c r="K54">
+        <v>0.50569603345802527</v>
+      </c>
+      <c r="L54">
+        <v>1.9026763478919911E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>551.82000000000005</v>
@@ -2330,19 +2824,28 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55">
+        <v>0.5625</v>
+      </c>
+      <c r="I55">
         <v>0.56842105263157894</v>
       </c>
-      <c r="I55">
-        <v>6.6371790282598649E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>3.0771284923296009E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.51227402955851831</v>
+      </c>
+      <c r="L55">
+        <v>2.771169458390078E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>482.29</v>
@@ -2359,19 +2862,28 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I56">
         <v>0.57894736842105265</v>
       </c>
-      <c r="I56">
-        <v>7.0233173882144426E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>5.116873742317956E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.52040446843973465</v>
+      </c>
+      <c r="L56">
+        <v>2.8050203087849651E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>615.86</v>
@@ -2388,19 +2900,28 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I57">
         <v>0.58947368421052626</v>
       </c>
-      <c r="I57">
-        <v>7.6548810585238859E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57">
+        <v>8.4449437988403209E-2</v>
+      </c>
+      <c r="K57">
+        <v>0.53365044909728354</v>
+      </c>
+      <c r="L57">
+        <v>3.202352632350539E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>504.6</v>
@@ -2417,19 +2938,28 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58">
+        <v>0.59375</v>
+      </c>
+      <c r="I58">
         <v>0.6</v>
       </c>
-      <c r="I58">
-        <v>7.8657367964164917E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <v>0.1010459402562016</v>
+      </c>
+      <c r="K58">
+        <v>0.54024300413817172</v>
+      </c>
+      <c r="L58">
+        <v>3.2807556779749871E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C59">
         <v>507.6</v>
@@ -2446,19 +2976,28 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="I59">
         <v>0.61052631578947369</v>
       </c>
-      <c r="I59">
-        <v>8.423151830500122E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59">
+        <v>0.1155715410376424</v>
+      </c>
+      <c r="K59">
+        <v>0.54600394065200375</v>
+      </c>
+      <c r="L59">
+        <v>3.517041532791938E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>483.43</v>
@@ -2475,19 +3014,28 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I60">
         <v>0.6210526315789473</v>
       </c>
-      <c r="I60">
-        <v>1.0601730543221031E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <v>0.13343268007901871</v>
+      </c>
+      <c r="K60">
+        <v>0.55307439924297297</v>
+      </c>
+      <c r="L60">
+        <v>3.8507002169716588E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C61">
         <v>483.11</v>
@@ -2504,19 +3052,28 @@
       <c r="G61">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61">
+        <v>0.625</v>
+      </c>
+      <c r="I61">
         <v>0.63157894736842102</v>
       </c>
-      <c r="I61">
-        <v>1.1164420962526509E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61">
+        <v>0.1578968067985653</v>
+      </c>
+      <c r="K61">
+        <v>0.56273094284668634</v>
+      </c>
+      <c r="L61">
+        <v>4.0274024712150958E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <v>597.67999999999995</v>
@@ -2533,19 +3090,28 @@
       <c r="G62">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I62">
         <v>0.64210526315789473</v>
       </c>
-      <c r="I62">
-        <v>1.150941312290002E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62">
+        <v>0.16708213058057281</v>
+      </c>
+      <c r="K62">
+        <v>0.56634728695135883</v>
+      </c>
+      <c r="L62">
+        <v>4.3849121254384898E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C63">
         <v>466.89</v>
@@ -2562,19 +3128,28 @@
       <c r="G63">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I63">
         <v>0.65263157894736845</v>
       </c>
-      <c r="I63">
-        <v>1.154832681610707E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <v>0.25893046609150677</v>
+      </c>
+      <c r="K63">
+        <v>0.60215555447985503</v>
+      </c>
+      <c r="L63">
+        <v>4.6692398508883541E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C64">
         <v>604.66</v>
@@ -2591,19 +3166,28 @@
       <c r="G64">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64">
+        <v>0.65625</v>
+      </c>
+      <c r="I64">
         <v>0.66315789473684206</v>
       </c>
-      <c r="I64">
-        <v>1.2587294171550601E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>0.28417670922465649</v>
+      </c>
+      <c r="K64">
+        <v>0.61186251832940075</v>
+      </c>
+      <c r="L64">
+        <v>6.5291833924925498E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C65">
         <v>591.03</v>
@@ -2620,19 +3204,28 @@
       <c r="G65">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I65">
         <v>0.67368421052631577</v>
       </c>
-      <c r="I65">
-        <v>1.2715850634476311E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65">
+        <v>0.44194340260383691</v>
+      </c>
+      <c r="K65">
+        <v>0.67073491895834059</v>
+      </c>
+      <c r="L65">
+        <v>8.5366602712417493E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C66">
         <v>477.56</v>
@@ -2649,19 +3242,28 @@
       <c r="G66">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="I66">
         <v>0.68421052631578949</v>
       </c>
-      <c r="I66">
-        <v>1.296576385815554E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66">
+        <v>0.46197423574124602</v>
+      </c>
+      <c r="K66">
+        <v>0.6779501016997741</v>
+      </c>
+      <c r="L66">
+        <v>1.007810635075536E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C67">
         <v>477.12</v>
@@ -2678,19 +3280,28 @@
       <c r="G67">
         <v>0.01</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67">
+        <v>0.6875</v>
+      </c>
+      <c r="I67">
         <v>0.6947368421052631</v>
       </c>
-      <c r="I67">
-        <v>1.44201948239013E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67">
+        <v>0.47155442742693832</v>
+      </c>
+      <c r="K67">
+        <v>0.68137756904768021</v>
+      </c>
+      <c r="L67">
+        <v>1.022908388443E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C68">
         <v>586.20000000000005</v>
@@ -2707,19 +3318,28 @@
       <c r="G68">
         <v>0.01</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="I68">
         <v>0.70526315789473681</v>
       </c>
-      <c r="I68">
-        <v>1.5288048494388031E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <v>0.50652091823516743</v>
+      </c>
+      <c r="K68">
+        <v>0.69375449565357483</v>
+      </c>
+      <c r="L68">
+        <v>1.1261909668341331E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C69">
         <v>634.76</v>
@@ -2736,19 +3356,28 @@
       <c r="G69">
         <v>0.01</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I69">
         <v>0.71578947368421053</v>
       </c>
-      <c r="I69">
-        <v>1.6612188036439119E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <v>0.55737768067517401</v>
+      </c>
+      <c r="K69">
+        <v>0.71136529423137618</v>
+      </c>
+      <c r="L69">
+        <v>1.167220322532048E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C70">
         <v>597.49</v>
@@ -2765,19 +3394,28 @@
       <c r="G70">
         <v>0.01</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70">
+        <v>0.71875</v>
+      </c>
+      <c r="I70">
         <v>0.72631578947368425</v>
       </c>
-      <c r="I70">
-        <v>1.6710684275046531E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70">
+        <v>0.55827863342902251</v>
+      </c>
+      <c r="K70">
+        <v>0.71167293357539063</v>
+      </c>
+      <c r="L70">
+        <v>1.216261143538701E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <v>560.48</v>
@@ -2794,19 +3432,28 @@
       <c r="G71">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I71">
         <v>0.73684210526315785</v>
       </c>
-      <c r="I71">
-        <v>1.6884641484218539E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <v>0.63551959324977947</v>
+      </c>
+      <c r="K71">
+        <v>0.73745520393015884</v>
+      </c>
+      <c r="L71">
+        <v>1.548712926205517E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C72">
         <v>472.9</v>
@@ -2823,19 +3470,28 @@
       <c r="G72">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="I72">
         <v>0.74736842105263157</v>
       </c>
-      <c r="I72">
-        <v>1.8793983072940629E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72">
+        <v>0.64206974048326082</v>
+      </c>
+      <c r="K72">
+        <v>0.73958604894828117</v>
+      </c>
+      <c r="L72">
+        <v>1.5729994188379452E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>476.22</v>
@@ -2852,19 +3508,28 @@
       <c r="G73">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73">
+        <v>0.75</v>
+      </c>
+      <c r="I73">
         <v>0.75789473684210529</v>
       </c>
-      <c r="I73">
-        <v>1.9453281029371002E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73">
+        <v>0.64836569965413315</v>
+      </c>
+      <c r="K73">
+        <v>0.74162577513319639</v>
+      </c>
+      <c r="L73">
+        <v>1.6625511588139321E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C74">
         <v>469.39</v>
@@ -2881,19 +3546,28 @@
       <c r="G74">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="I74">
         <v>0.76842105263157889</v>
       </c>
-      <c r="I74">
-        <v>1.9902702195743711E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74">
+        <v>0.69811528511910037</v>
+      </c>
+      <c r="K74">
+        <v>0.75744745010956671</v>
+      </c>
+      <c r="L74">
+        <v>1.7058038617438188E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C75">
         <v>521.19000000000005</v>
@@ -2910,19 +3584,28 @@
       <c r="G75">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="I75">
         <v>0.77894736842105261</v>
       </c>
-      <c r="I75">
-        <v>2.0522142173056871E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <v>0.70202832690596828</v>
+      </c>
+      <c r="K75">
+        <v>0.75866925098390847</v>
+      </c>
+      <c r="L75">
+        <v>1.7426792765367238E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C76">
         <v>615.85</v>
@@ -2939,19 +3622,28 @@
       <c r="G76">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76">
+        <v>0.78125</v>
+      </c>
+      <c r="I76">
         <v>0.78947368421052633</v>
       </c>
-      <c r="I76">
-        <v>2.0948536752769309E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <v>0.70552999735337785</v>
+      </c>
+      <c r="K76">
+        <v>0.75975976458589534</v>
+      </c>
+      <c r="L76">
+        <v>1.823757206917382E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C77">
         <v>493.59</v>
@@ -2968,19 +3660,28 @@
       <c r="G77">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I77">
         <v>0.79999999999999993</v>
       </c>
-      <c r="I77">
-        <v>2.216434738263761E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <v>0.7440432960363017</v>
+      </c>
+      <c r="K77">
+        <v>0.77157485886149357</v>
+      </c>
+      <c r="L77">
+        <v>1.8310780845099909E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C78">
         <v>476.57</v>
@@ -2997,19 +3698,28 @@
       <c r="G78">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="I78">
         <v>0.81052631578947365</v>
       </c>
-      <c r="I78">
-        <v>2.399367555434952E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78">
+        <v>0.74641582039463761</v>
+      </c>
+      <c r="K78">
+        <v>0.77229186730212052</v>
+      </c>
+      <c r="L78">
+        <v>1.8381166645794329E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <v>560.28</v>
@@ -3026,19 +3736,28 @@
       <c r="G79">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79">
+        <v>0.8125</v>
+      </c>
+      <c r="I79">
         <v>0.82105263157894737</v>
       </c>
-      <c r="I79">
-        <v>2.4277941610218359E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <v>0.74790504000536051</v>
+      </c>
+      <c r="K79">
+        <v>0.7727412813337472</v>
+      </c>
+      <c r="L79">
+        <v>1.941002254607789E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C80">
         <v>507.23</v>
@@ -3055,19 +3774,28 @@
       <c r="G80">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="I80">
         <v>0.83157894736842108</v>
       </c>
-      <c r="I80">
-        <v>2.5947603238976359E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <v>0.75236458188691702</v>
+      </c>
+      <c r="K80">
+        <v>0.7740840800508717</v>
+      </c>
+      <c r="L80">
+        <v>2.0106163750743169E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C81">
         <v>606.48</v>
@@ -3084,19 +3812,28 @@
       <c r="G81">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I81">
         <v>0.84210526315789469</v>
       </c>
-      <c r="I81">
-        <v>2.8123682051491058E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <v>0.75831286571123868</v>
+      </c>
+      <c r="K81">
+        <v>0.77586814650741154</v>
+      </c>
+      <c r="L81">
+        <v>2.079292862859532E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C82">
         <v>560.41999999999996</v>
@@ -3113,19 +3850,28 @@
       <c r="G82">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82">
+        <v>0.84375</v>
+      </c>
+      <c r="I82">
         <v>0.85263157894736841</v>
       </c>
-      <c r="I82">
-        <v>2.9180439845666591E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <v>0.76909647109235957</v>
+      </c>
+      <c r="K82">
+        <v>0.77908197851738925</v>
+      </c>
+      <c r="L82">
+        <v>2.1646118704947009E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C83">
         <v>627.91</v>
@@ -3142,19 +3888,28 @@
       <c r="G83">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I83">
         <v>0.86315789473684212</v>
       </c>
-      <c r="I83">
-        <v>2.9644772615425741E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <v>0.79372655761424205</v>
+      </c>
+      <c r="K83">
+        <v>0.78632268202798183</v>
+      </c>
+      <c r="L83">
+        <v>2.1793901132733839E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C84">
         <v>492.55</v>
@@ -3171,19 +3926,28 @@
       <c r="G84">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="I84">
         <v>0.87368421052631573</v>
       </c>
-      <c r="I84">
-        <v>3.035426097778093E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <v>0.82289916681830544</v>
+      </c>
+      <c r="K84">
+        <v>0.79471733171988679</v>
+      </c>
+      <c r="L84">
+        <v>2.2788598052678771E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C85">
         <v>627.21</v>
@@ -3200,19 +3964,28 @@
       <c r="G85">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85">
+        <v>0.875</v>
+      </c>
+      <c r="I85">
         <v>0.88421052631578945</v>
       </c>
-      <c r="I85">
-        <v>3.3066859377256758E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <v>0.88091448322439303</v>
+      </c>
+      <c r="K85">
+        <v>0.8108179461058943</v>
+      </c>
+      <c r="L85">
+        <v>2.3118063066676731E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C86">
         <v>570.92999999999995</v>
@@ -3229,19 +4002,28 @@
       <c r="G86">
         <v>0.02</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="I86">
         <v>0.89473684210526316</v>
       </c>
-      <c r="I86">
-        <v>3.4332751415082893E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <v>0.90571808217881067</v>
+      </c>
+      <c r="K86">
+        <v>0.81745745540570192</v>
+      </c>
+      <c r="L86">
+        <v>2.354417503520595E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C87">
         <v>485.35</v>
@@ -3258,19 +4040,28 @@
       <c r="G87">
         <v>0.02</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I87">
         <v>0.90526315789473677</v>
       </c>
-      <c r="I87">
-        <v>3.5256121928468019E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87">
+        <v>0.93747635384305872</v>
+      </c>
+      <c r="K87">
+        <v>0.82574320924212075</v>
+      </c>
+      <c r="L87">
+        <v>2.5113396991479121E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C88">
         <v>486.18</v>
@@ -3287,19 +4078,28 @@
       <c r="G88">
         <v>0.02</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88">
+        <v>0.90625</v>
+      </c>
+      <c r="I88">
         <v>0.91578947368421049</v>
       </c>
-      <c r="I88">
-        <v>3.5460123816889982E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88">
+        <v>0.95523580203162184</v>
+      </c>
+      <c r="K88">
+        <v>0.83027076781619602</v>
+      </c>
+      <c r="L88">
+        <v>2.6723826931169928E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C89">
         <v>556.04</v>
@@ -3316,19 +4116,28 @@
       <c r="G89">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="I89">
         <v>0.9263157894736842</v>
       </c>
-      <c r="I89">
-        <v>3.9674709299877389E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89">
+        <v>1.112423492406168</v>
+      </c>
+      <c r="K89">
+        <v>0.86702194576856129</v>
+      </c>
+      <c r="L89">
+        <v>2.7482712844999181E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C90">
         <v>622.58000000000004</v>
@@ -3345,19 +4154,28 @@
       <c r="G90">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="I90">
         <v>0.93684210526315792</v>
       </c>
-      <c r="I90">
-        <v>3.9772471595312518E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <v>1.2274569954402761</v>
+      </c>
+      <c r="K90">
+        <v>0.89017456213061619</v>
+      </c>
+      <c r="L90">
+        <v>2.8607185361650699E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C91">
         <v>630.23</v>
@@ -3374,19 +4192,28 @@
       <c r="G91">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91">
+        <v>0.9375</v>
+      </c>
+      <c r="I91">
         <v>0.94736842105263153</v>
       </c>
-      <c r="I91">
-        <v>3.987090764337678E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91">
+        <v>1.227611290232659</v>
+      </c>
+      <c r="K91">
+        <v>0.89020353924734641</v>
+      </c>
+      <c r="L91">
+        <v>3.0588217452199629E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C92">
         <v>580.54999999999995</v>
@@ -3403,19 +4230,28 @@
       <c r="G92">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="I92">
         <v>0.95789473684210524</v>
       </c>
-      <c r="I92">
-        <v>4.1044660159019267E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92">
+        <v>1.2998344958400301</v>
+      </c>
+      <c r="K92">
+        <v>0.90317115014828619</v>
+      </c>
+      <c r="L92">
+        <v>3.6806357605091863E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C93">
         <v>553.44000000000005</v>
@@ -3432,19 +4268,28 @@
       <c r="G93">
         <v>0.03</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I93">
         <v>0.96842105263157896</v>
       </c>
-      <c r="I93">
-        <v>4.1213958139170323E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93">
+        <v>1.3537868630590959</v>
+      </c>
+      <c r="K93">
+        <v>0.91209780698998388</v>
+      </c>
+      <c r="L93">
+        <v>3.7095589550554878E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C94">
         <v>611.54999999999995</v>
@@ -3461,19 +4306,28 @@
       <c r="G94">
         <v>0.03</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94">
+        <v>0.96875</v>
+      </c>
+      <c r="I94">
         <v>0.97894736842105257</v>
       </c>
-      <c r="I94">
-        <v>4.2735360417423332E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94">
+        <v>1.3768448765351839</v>
+      </c>
+      <c r="K94">
+        <v>0.91571989356290118</v>
+      </c>
+      <c r="L94">
+        <v>3.9659831370037861E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C95">
         <v>579.14</v>
@@ -3490,19 +4344,28 @@
       <c r="G95">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="I95">
         <v>0.98947368421052628</v>
       </c>
-      <c r="I95">
-        <v>4.2928658429306259E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95">
+        <v>1.5180684444601611</v>
+      </c>
+      <c r="K95">
+        <v>0.93550142743728981</v>
+      </c>
+      <c r="L95">
+        <v>4.2314438970480428E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C96">
         <v>513.86</v>
@@ -3519,11 +4382,20 @@
       <c r="G96">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>5.160284985979819E-2</v>
+      <c r="J96">
+        <v>1.9406206816283409</v>
+      </c>
+      <c r="K96">
+        <v>0.97384784818301884</v>
+      </c>
+      <c r="L96">
+        <v>4.5603363717665622E-2</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/stats.xlsx
+++ b/xlsx/stats.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\top kek\Desktop\Python\2_External APIs\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454EE39-2C6D-4D8E-8948-0F63972B0740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,7 +46,7 @@
     <t>theo_percentile</t>
   </si>
   <si>
-    <t>norm_sample</t>
+    <t>significant_move</t>
   </si>
   <si>
     <t>2024-03-15</t>
@@ -343,8 +337,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,14 +401,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -461,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,27 +479,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,24 +513,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,19 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -808,25 +753,25 @@
         <v>96</v>
       </c>
       <c r="G2">
-        <v>-0.14699999999999999</v>
+        <v>-0.147</v>
       </c>
       <c r="H2">
-        <v>1.041666666666667E-2</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="I2">
-        <v>1.0526315789473681E-2</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="J2">
-        <v>-6.3337365525850693</v>
+        <v>-6.333736552585069</v>
       </c>
       <c r="K2">
-        <v>1.196469842998777E-10</v>
+        <v>1.196469842998777e-10</v>
       </c>
       <c r="L2">
-        <v>-4.8954156752951117E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-6.333736552585069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -837,7 +782,7 @@
         <v>546.66</v>
       </c>
       <c r="D3">
-        <v>-7.7040984714973781E-2</v>
+        <v>-0.07704098471497378</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -846,25 +791,25 @@
         <v>95</v>
       </c>
       <c r="G3">
-        <v>-7.6999999999999999E-2</v>
+        <v>-0.077</v>
       </c>
       <c r="H3">
-        <v>2.0833333333333329E-2</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="I3">
-        <v>2.1052631578947371E-2</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="J3">
-        <v>-3.2793032496387049</v>
+        <v>-3.279303249638705</v>
       </c>
       <c r="K3">
-        <v>5.2031872880998922E-4</v>
+        <v>0.0005203187288099892</v>
       </c>
       <c r="L3">
-        <v>-4.7974201027187358E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3.279303249638705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -875,7 +820,7 @@
         <v>544.84</v>
       </c>
       <c r="D4">
-        <v>-4.1523605759550719E-2</v>
+        <v>-0.04152360575955072</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -884,25 +829,25 @@
         <v>94</v>
       </c>
       <c r="G4">
-        <v>-4.2999999999999997E-2</v>
+        <v>-0.043</v>
       </c>
       <c r="H4">
-        <v>3.125E-2</v>
+        <v>0.03125</v>
       </c>
       <c r="I4">
-        <v>3.1578947368421047E-2</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="J4">
-        <v>-1.7288751995796841</v>
+        <v>-1.728875199579684</v>
       </c>
       <c r="K4">
-        <v>4.1915716791855663E-2</v>
+        <v>0.04191571679185566</v>
       </c>
       <c r="L4">
-        <v>-4.413702482244878E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.728875199579684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -913,7 +858,7 @@
         <v>607.14</v>
       </c>
       <c r="D5">
-        <v>-3.7753748435251033E-2</v>
+        <v>-0.03775374843525103</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -922,25 +867,25 @@
         <v>93</v>
       </c>
       <c r="G5">
-        <v>-3.6999999999999998E-2</v>
+        <v>-0.037</v>
       </c>
       <c r="H5">
-        <v>4.1666666666666657E-2</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="I5">
-        <v>4.2105263157894743E-2</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="J5">
-        <v>-1.5643109014187619</v>
+        <v>-1.564310901418762</v>
       </c>
       <c r="K5">
-        <v>5.8872286620204002E-2</v>
+        <v>0.058872286620204</v>
       </c>
       <c r="L5">
-        <v>-3.9530068008569737E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-1.564310901418762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -951,7 +896,7 @@
         <v>611.84</v>
       </c>
       <c r="D6">
-        <v>-2.4810602363665168E-2</v>
+        <v>-0.02481060236366517</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -960,25 +905,25 @@
         <v>92</v>
       </c>
       <c r="G6">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.025</v>
       </c>
       <c r="H6">
-        <v>5.2083333333333343E-2</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="I6">
-        <v>5.2631578947368418E-2</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J6">
         <v>-0.9993081530294724</v>
       </c>
       <c r="K6">
-        <v>0.15882271855408089</v>
+        <v>0.1588227185540809</v>
       </c>
       <c r="L6">
-        <v>-3.8649503113930693E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -986,10 +931,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>590.44000000000005</v>
+        <v>590.4400000000001</v>
       </c>
       <c r="D7">
-        <v>-2.3798294919072479E-2</v>
+        <v>-0.02379829491907248</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -998,25 +943,25 @@
         <v>91</v>
       </c>
       <c r="G7">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.025</v>
       </c>
       <c r="H7">
-        <v>6.25E-2</v>
+        <v>0.0625</v>
       </c>
       <c r="I7">
-        <v>6.3157894736842107E-2</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="J7">
-        <v>-0.95511824083606645</v>
+        <v>-0.9551182408360664</v>
       </c>
       <c r="K7">
         <v>0.1697589527391869</v>
       </c>
       <c r="L7">
-        <v>-3.7427146714569037E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1027,7 +972,7 @@
         <v>499.52</v>
       </c>
       <c r="D8">
-        <v>-2.3211070029944381E-2</v>
+        <v>-0.02321107002994438</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1036,25 +981,25 @@
         <v>90</v>
       </c>
       <c r="G8">
-        <v>-2.1999999999999999E-2</v>
+        <v>-0.022</v>
       </c>
       <c r="H8">
-        <v>7.2916666666666671E-2</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="I8">
-        <v>7.3684210526315783E-2</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="J8">
-        <v>-0.92948431269796572</v>
+        <v>-0.9294843126979657</v>
       </c>
       <c r="K8">
-        <v>0.17631907566806679</v>
+        <v>0.1763190756680668</v>
       </c>
       <c r="L8">
-        <v>-3.6304917870997648E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1065,7 +1010,7 @@
         <v>462.83</v>
       </c>
       <c r="D9">
-        <v>-2.1883553049359961E-2</v>
+        <v>-0.02188355304935996</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1074,25 +1019,25 @@
         <v>89</v>
       </c>
       <c r="G9">
-        <v>-2.1999999999999999E-2</v>
+        <v>-0.022</v>
       </c>
       <c r="H9">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I9">
-        <v>8.4210526315789472E-2</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="J9">
         <v>-0.8715346659571136</v>
       </c>
       <c r="K9">
-        <v>0.19173114315970871</v>
+        <v>0.1917311431597087</v>
       </c>
       <c r="L9">
-        <v>-3.1867974065452567E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1103,7 +1048,7 @@
         <v>474.09</v>
       </c>
       <c r="D10">
-        <v>-2.12660747504172E-2</v>
+        <v>-0.0212660747504172</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1112,25 +1057,25 @@
         <v>88</v>
       </c>
       <c r="G10">
-        <v>-2.1999999999999999E-2</v>
+        <v>-0.022</v>
       </c>
       <c r="H10">
-        <v>9.375E-2</v>
+        <v>0.09375</v>
       </c>
       <c r="I10">
-        <v>9.4736842105263161E-2</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="J10">
-        <v>-0.84458009602150141</v>
+        <v>-0.8445800960215014</v>
       </c>
       <c r="K10">
         <v>0.1991726629566789</v>
       </c>
       <c r="L10">
-        <v>-3.053550607995335E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1141,7 +1086,7 @@
         <v>487.11</v>
       </c>
       <c r="D11">
-        <v>-2.012017635142271E-2</v>
+        <v>-0.02012017635142271</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1156,19 +1101,19 @@
         <v>0.1041666666666667</v>
       </c>
       <c r="I11">
-        <v>0.10526315789473679</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J11">
         <v>-0.7945585833826162</v>
       </c>
       <c r="K11">
-        <v>0.21343515918469549</v>
+        <v>0.2134351591846955</v>
       </c>
       <c r="L11">
-        <v>-2.6114163169521129E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1179,7 +1124,7 @@
         <v>465.02</v>
       </c>
       <c r="D12">
-        <v>-1.7395450369034119E-2</v>
+        <v>-0.01739545036903412</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1188,7 +1133,7 @@
         <v>86</v>
       </c>
       <c r="G12">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.018</v>
       </c>
       <c r="H12">
         <v>0.1145833333333333</v>
@@ -1197,16 +1142,16 @@
         <v>0.1157894736842105</v>
       </c>
       <c r="J12">
-        <v>-0.67561704782837517</v>
+        <v>-0.6756170478283752</v>
       </c>
       <c r="K12">
-        <v>0.24964190745308451</v>
+        <v>0.2496419074530845</v>
       </c>
       <c r="L12">
-        <v>-2.503286608780431E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1217,7 +1162,7 @@
         <v>601.89</v>
       </c>
       <c r="D13">
-        <v>-1.6396106062762431E-2</v>
+        <v>-0.01639610606276243</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1226,25 +1171,25 @@
         <v>85</v>
       </c>
       <c r="G13">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.018</v>
       </c>
       <c r="H13">
         <v>0.125</v>
       </c>
       <c r="I13">
-        <v>0.12631578947368419</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="J13">
-        <v>-0.63199301109821482</v>
+        <v>-0.6319930110982148</v>
       </c>
       <c r="K13">
-        <v>0.26369572203369518</v>
+        <v>0.2636957220336952</v>
       </c>
       <c r="L13">
-        <v>-2.302966330952682E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1255,7 +1200,7 @@
         <v>617.78</v>
       </c>
       <c r="D14">
-        <v>-1.6344063147875509E-2</v>
+        <v>-0.01634406314787551</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1264,25 +1209,25 @@
         <v>84</v>
       </c>
       <c r="G14">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.018</v>
       </c>
       <c r="H14">
-        <v>0.13541666666666671</v>
+        <v>0.1354166666666667</v>
       </c>
       <c r="I14">
         <v>0.1368421052631579</v>
       </c>
       <c r="J14">
-        <v>-0.62972119945499694</v>
+        <v>-0.6297211994549969</v>
       </c>
       <c r="K14">
-        <v>0.26443850497705368</v>
+        <v>0.2644385049770537</v>
       </c>
       <c r="L14">
-        <v>-2.270543231299536E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1293,7 +1238,7 @@
         <v>511.25</v>
       </c>
       <c r="D15">
-        <v>-1.5314888951321491E-2</v>
+        <v>-0.01531488895132149</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1302,25 +1247,25 @@
         <v>83</v>
       </c>
       <c r="G15">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.015</v>
       </c>
       <c r="H15">
-        <v>0.14583333333333329</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="I15">
-        <v>0.14736842105263159</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="J15">
-        <v>-0.58479500868126399</v>
+        <v>-0.584795008681264</v>
       </c>
       <c r="K15">
-        <v>0.27934278045921518</v>
+        <v>0.2793427804592152</v>
       </c>
       <c r="L15">
-        <v>-2.1968985945527399E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1331,7 +1276,7 @@
         <v>475.95</v>
       </c>
       <c r="D16">
-        <v>-1.493156429691744E-2</v>
+        <v>-0.01493156429691744</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1340,25 +1285,25 @@
         <v>82</v>
       </c>
       <c r="G16">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.015</v>
       </c>
       <c r="H16">
         <v>0.15625</v>
       </c>
       <c r="I16">
-        <v>0.15789473684210531</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="J16">
-        <v>-0.56806186806260717</v>
+        <v>-0.5680618680626072</v>
       </c>
       <c r="K16">
-        <v>0.28499647948375439</v>
+        <v>0.2849964794837544</v>
       </c>
       <c r="L16">
-        <v>-2.1452145323920851E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1369,7 +1314,7 @@
         <v>571.79</v>
       </c>
       <c r="D17">
-        <v>-1.4376994810332279E-2</v>
+        <v>-0.01437699481033228</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1378,25 +1323,25 @@
         <v>81</v>
       </c>
       <c r="G17">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.015</v>
       </c>
       <c r="H17">
-        <v>0.16666666666666671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I17">
-        <v>0.16842105263157889</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="J17">
-        <v>-0.54385343509271911</v>
+        <v>-0.5438534350927191</v>
       </c>
       <c r="K17">
-        <v>0.29327116720434621</v>
+        <v>0.2932711672043462</v>
       </c>
       <c r="L17">
-        <v>-2.1072729052156611E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1407,7 +1352,7 @@
         <v>552.49</v>
       </c>
       <c r="D18">
-        <v>-1.435822576857948E-2</v>
+        <v>-0.01435822576857948</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1416,25 +1361,25 @@
         <v>80</v>
       </c>
       <c r="G18">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.015</v>
       </c>
       <c r="H18">
-        <v>0.17708333333333329</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="I18">
         <v>0.1789473684210526</v>
       </c>
       <c r="J18">
-        <v>-0.54303411650384492</v>
+        <v>-0.5430341165038449</v>
       </c>
       <c r="K18">
-        <v>0.29355315643582858</v>
+        <v>0.2935531564358286</v>
       </c>
       <c r="L18">
-        <v>-2.020588597439868E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1442,10 +1387,10 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>613.92999999999995</v>
+        <v>613.9299999999999</v>
       </c>
       <c r="D19">
-        <v>-1.3991219004616079E-2</v>
+        <v>-0.01399121900461608</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1454,25 +1399,25 @@
         <v>79</v>
       </c>
       <c r="G19">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.015</v>
       </c>
       <c r="H19">
         <v>0.1875</v>
       </c>
       <c r="I19">
-        <v>0.18947368421052629</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="J19">
-        <v>-0.52701329520043738</v>
+        <v>-0.5270132952004374</v>
       </c>
       <c r="K19">
-        <v>0.29909217792385429</v>
+        <v>0.2990921779238543</v>
       </c>
       <c r="L19">
-        <v>-2.0191600305676589E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1483,7 +1428,7 @@
         <v>603.59</v>
       </c>
       <c r="D20">
-        <v>-1.310155844000516E-2</v>
+        <v>-0.01310155844000516</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1492,25 +1437,25 @@
         <v>78</v>
       </c>
       <c r="G20">
-        <v>-1.2999999999999999E-2</v>
+        <v>-0.013</v>
       </c>
       <c r="H20">
-        <v>0.19791666666666671</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="I20">
         <v>0.2</v>
       </c>
       <c r="J20">
-        <v>-0.48817724549825298</v>
+        <v>-0.488177245498253</v>
       </c>
       <c r="K20">
-        <v>0.31271215023886739</v>
+        <v>0.3127121502388674</v>
       </c>
       <c r="L20">
-        <v>-1.9693883429167679E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1521,7 +1466,7 @@
         <v>482.65</v>
       </c>
       <c r="D21">
-        <v>-1.122854959847785E-2</v>
+        <v>-0.01122854959847785</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1533,22 +1478,22 @@
         <v>-0.01</v>
       </c>
       <c r="H21">
-        <v>0.20833333333333329</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="I21">
         <v>0.2105263157894737</v>
       </c>
       <c r="J21">
-        <v>-0.40641542828879129</v>
+        <v>-0.4064154282887913</v>
       </c>
       <c r="K21">
         <v>0.3422186927294868</v>
       </c>
       <c r="L21">
-        <v>-1.8840127984466309E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1559,7 +1504,7 @@
         <v>487.22</v>
       </c>
       <c r="D22">
-        <v>-1.0880211845446301E-2</v>
+        <v>-0.0108802118454463</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1574,19 +1519,19 @@
         <v>0.21875</v>
       </c>
       <c r="I22">
-        <v>0.22105263157894739</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="J22">
-        <v>-0.39120955896289072</v>
+        <v>-0.3912095589628907</v>
       </c>
       <c r="K22">
-        <v>0.34782117160242898</v>
+        <v>0.347821171602429</v>
       </c>
       <c r="L22">
-        <v>-1.8529879325939101E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1594,10 +1539,10 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>597.17999999999995</v>
+        <v>597.1799999999999</v>
       </c>
       <c r="D23">
-        <v>-1.067658400733951E-2</v>
+        <v>-0.01067658400733951</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1609,22 +1554,22 @@
         <v>-0.01</v>
       </c>
       <c r="H23">
-        <v>0.22916666666666671</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="I23">
-        <v>0.23157894736842111</v>
+        <v>0.2315789473684211</v>
       </c>
       <c r="J23">
-        <v>-0.38232066228023048</v>
+        <v>-0.3823206622802305</v>
       </c>
       <c r="K23">
-        <v>0.35111176520830489</v>
+        <v>0.3511117652083049</v>
       </c>
       <c r="L23">
-        <v>-1.6789264051158031E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1632,10 +1577,10 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>573.54999999999995</v>
+        <v>573.55</v>
       </c>
       <c r="D24">
-        <v>-9.699127818073805E-3</v>
+        <v>-0.009699127818073805</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1647,22 +1592,22 @@
         <v>-0.01</v>
       </c>
       <c r="H24">
-        <v>0.23958333333333329</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="I24">
-        <v>0.24210526315789471</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="J24">
-        <v>-0.33965210006894292</v>
+        <v>-0.3396521000689429</v>
       </c>
       <c r="K24">
-        <v>0.36705926896184587</v>
+        <v>0.3670592689618459</v>
       </c>
       <c r="L24">
-        <v>-1.6735487562654541E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1673,7 +1618,7 @@
         <v>473.07</v>
       </c>
       <c r="D25">
-        <v>-9.446437391583018E-3</v>
+        <v>-0.009446437391583018</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1688,19 +1633,19 @@
         <v>0.25</v>
       </c>
       <c r="I25">
-        <v>0.25263157894736837</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="J25">
-        <v>-0.32862149092111131</v>
+        <v>-0.3286214909211113</v>
       </c>
       <c r="K25">
-        <v>0.37122090103333782</v>
+        <v>0.3712209010333378</v>
       </c>
       <c r="L25">
-        <v>-1.545502214944568E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1711,7 +1656,7 @@
         <v>541.91</v>
       </c>
       <c r="D26">
-        <v>-8.7271009627958307E-3</v>
+        <v>-0.008727100962795831</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1720,25 +1665,25 @@
         <v>72</v>
       </c>
       <c r="G26">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H26">
-        <v>0.26041666666666669</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="I26">
-        <v>0.26315789473684209</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J26">
-        <v>-0.29722054272556181</v>
+        <v>-0.2972205427255618</v>
       </c>
       <c r="K26">
-        <v>0.38314906966126772</v>
+        <v>0.3831490696612677</v>
       </c>
       <c r="L26">
-        <v>-1.492766539304125E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1749,7 +1694,7 @@
         <v>488.1</v>
       </c>
       <c r="D27">
-        <v>-8.5070435620666629E-3</v>
+        <v>-0.008507043562066663</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1758,25 +1703,25 @@
         <v>71</v>
       </c>
       <c r="G27">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H27">
-        <v>0.27083333333333331</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="I27">
-        <v>0.27368421052631581</v>
+        <v>0.2736842105263158</v>
       </c>
       <c r="J27">
-        <v>-0.28761445193992718</v>
+        <v>-0.2876144519399272</v>
       </c>
       <c r="K27">
-        <v>0.38682094054019212</v>
+        <v>0.3868209405401921</v>
       </c>
       <c r="L27">
-        <v>-1.3370226889350989E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1787,7 +1732,7 @@
         <v>470.1</v>
       </c>
       <c r="D28">
-        <v>-8.4517390590370667E-3</v>
+        <v>-0.008451739059037067</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1796,25 +1741,25 @@
         <v>70</v>
       </c>
       <c r="G28">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H28">
         <v>0.28125</v>
       </c>
       <c r="I28">
-        <v>0.28421052631578952</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="J28">
-        <v>-0.28520026330007081</v>
+        <v>-0.2852002633000708</v>
       </c>
       <c r="K28">
-        <v>0.38774535932504522</v>
+        <v>0.3877453593250452</v>
       </c>
       <c r="L28">
-        <v>-1.271766561534241E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1822,10 +1767,10 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>567.04999999999995</v>
+        <v>567.05</v>
       </c>
       <c r="D29">
-        <v>-8.3243078415549121E-3</v>
+        <v>-0.008324307841554912</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1834,25 +1779,25 @@
         <v>69</v>
       </c>
       <c r="G29">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H29">
-        <v>0.29166666666666669</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="I29">
-        <v>0.29473684210526307</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="J29">
-        <v>-0.27963755175298632</v>
+        <v>-0.2796375517529863</v>
       </c>
       <c r="K29">
-        <v>0.38987779692467361</v>
+        <v>0.3898777969246736</v>
       </c>
       <c r="L29">
-        <v>-1.187650405589563E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1860,10 +1805,10 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>551.69000000000005</v>
+        <v>551.6900000000001</v>
       </c>
       <c r="D30">
-        <v>-7.8539397877843697E-3</v>
+        <v>-0.00785393978778437</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1872,25 +1817,25 @@
         <v>68</v>
       </c>
       <c r="G30">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H30">
-        <v>0.30208333333333331</v>
+        <v>0.3020833333333333</v>
       </c>
       <c r="I30">
-        <v>0.30526315789473679</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="J30">
-        <v>-0.25910473525960692</v>
+        <v>-0.2591047352596069</v>
       </c>
       <c r="K30">
-        <v>0.39777721566284457</v>
+        <v>0.3977772156628446</v>
       </c>
       <c r="L30">
-        <v>-1.102263333843692E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1901,7 +1846,7 @@
         <v>473.44</v>
       </c>
       <c r="D31">
-        <v>-7.7428429244736918E-3</v>
+        <v>-0.007742842924473692</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1910,25 +1855,25 @@
         <v>67</v>
       </c>
       <c r="G31">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H31">
         <v>0.3125</v>
       </c>
       <c r="I31">
-        <v>0.31578947368421051</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="J31">
-        <v>-0.25425506171340773</v>
+        <v>-0.2542550617134077</v>
       </c>
       <c r="K31">
-        <v>0.39964925737298851</v>
+        <v>0.3996492573729885</v>
       </c>
       <c r="L31">
-        <v>-9.8214155137581194E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1939,7 +1884,7 @@
         <v>630.5</v>
       </c>
       <c r="D32">
-        <v>-6.7338192896668758E-3</v>
+        <v>-0.006733819289666876</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1948,25 +1893,25 @@
         <v>66</v>
       </c>
       <c r="G32">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H32">
-        <v>0.32291666666666669</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="I32">
-        <v>0.32631578947368423</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="J32">
-        <v>-0.21020849655046431</v>
+        <v>-0.2102084965504643</v>
       </c>
       <c r="K32">
-        <v>0.41675247421403488</v>
+        <v>0.4167524742140349</v>
       </c>
       <c r="L32">
-        <v>-9.380187731754636E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1977,7 +1922,7 @@
         <v>504.4</v>
       </c>
       <c r="D33">
-        <v>-6.3241317494684424E-3</v>
+        <v>-0.006324131749468442</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1986,25 +1931,25 @@
         <v>65</v>
       </c>
       <c r="G33">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H33">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I33">
-        <v>0.33684210526315789</v>
+        <v>0.3368421052631579</v>
       </c>
       <c r="J33">
-        <v>-0.19232454585465009</v>
+        <v>-0.1923245458546501</v>
       </c>
       <c r="K33">
-        <v>0.42374399623665249</v>
+        <v>0.4237439962366525</v>
       </c>
       <c r="L33">
-        <v>-8.5852506644670985E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2015,7 +1960,7 @@
         <v>538.52</v>
       </c>
       <c r="D34">
-        <v>-6.2752998799924242E-3</v>
+        <v>-0.006275299879992424</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -2024,25 +1969,25 @@
         <v>64</v>
       </c>
       <c r="G34">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="H34">
         <v>0.34375</v>
       </c>
       <c r="I34">
-        <v>0.34736842105263149</v>
+        <v>0.3473684210526315</v>
       </c>
       <c r="J34">
-        <v>-0.19019290488341001</v>
+        <v>-0.19019290488341</v>
       </c>
       <c r="K34">
-        <v>0.42457898536556599</v>
+        <v>0.424578985365566</v>
       </c>
       <c r="L34">
-        <v>-8.4375631013342573E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2053,7 +1998,7 @@
         <v>484.28</v>
       </c>
       <c r="D35">
-        <v>-6.0525146167025312E-3</v>
+        <v>-0.006052514616702531</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -2062,25 +2007,25 @@
         <v>63</v>
       </c>
       <c r="G35">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H35">
-        <v>0.35416666666666669</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="I35">
-        <v>0.35789473684210532</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="J35">
-        <v>-0.18046773564223509</v>
+        <v>-0.1804677356422351</v>
       </c>
       <c r="K35">
-        <v>0.42839269086912612</v>
+        <v>0.4283926908691261</v>
       </c>
       <c r="L35">
-        <v>-6.6006164823798029E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2091,7 +2036,7 @@
         <v>499.21</v>
       </c>
       <c r="D36">
-        <v>-5.7525375851410487E-3</v>
+        <v>-0.005752537585141049</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -2100,25 +2045,25 @@
         <v>62</v>
       </c>
       <c r="G36">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H36">
-        <v>0.36458333333333331</v>
+        <v>0.3645833333333333</v>
       </c>
       <c r="I36">
-        <v>0.36842105263157893</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="J36">
         <v>-0.1673729404240944</v>
       </c>
       <c r="K36">
-        <v>0.43353830761966089</v>
+        <v>0.4335383076196609</v>
       </c>
       <c r="L36">
-        <v>-6.4941789076331238E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2126,10 +2071,10 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>570.45000000000005</v>
+        <v>570.45</v>
       </c>
       <c r="D37">
-        <v>-5.4195936848984161E-3</v>
+        <v>-0.005419593684898416</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -2138,25 +2083,25 @@
         <v>61</v>
       </c>
       <c r="G37">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H37">
         <v>0.375</v>
       </c>
       <c r="I37">
-        <v>0.37894736842105259</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="J37">
         <v>-0.1528390537124622</v>
       </c>
       <c r="K37">
-        <v>0.43926259956047092</v>
+        <v>0.4392625995604709</v>
       </c>
       <c r="L37">
-        <v>-6.064186092819281E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2164,10 +2109,10 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>567.94000000000005</v>
+        <v>567.9400000000001</v>
       </c>
       <c r="D38">
-        <v>-5.2508308583538721E-3</v>
+        <v>-0.005250830858353872</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -2176,25 +2121,25 @@
         <v>60</v>
       </c>
       <c r="G38">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H38">
-        <v>0.38541666666666669</v>
+        <v>0.3854166666666667</v>
       </c>
       <c r="I38">
-        <v>0.38947368421052631</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="J38">
-        <v>-0.14547210750817441</v>
+        <v>-0.1454721075081744</v>
       </c>
       <c r="K38">
-        <v>0.44216906822689311</v>
+        <v>0.4421690682268931</v>
       </c>
       <c r="L38">
-        <v>-5.6979342173959432E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2205,7 +2150,7 @@
         <v>482.88</v>
       </c>
       <c r="D39">
-        <v>-5.1021045787509323E-3</v>
+        <v>-0.005102104578750932</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -2214,25 +2159,25 @@
         <v>59</v>
       </c>
       <c r="G39">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H39">
-        <v>0.39583333333333331</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="I39">
         <v>0.4</v>
       </c>
       <c r="J39">
-        <v>-0.13897980986518879</v>
+        <v>-0.1389798098651888</v>
       </c>
       <c r="K39">
-        <v>0.44473305179584011</v>
+        <v>0.4447330517958401</v>
       </c>
       <c r="L39">
-        <v>-5.3330826055967857E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2243,7 +2188,7 @@
         <v>502.09</v>
       </c>
       <c r="D40">
-        <v>-4.9866497159554157E-3</v>
+        <v>-0.004986649715955416</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -2252,25 +2197,25 @@
         <v>58</v>
       </c>
       <c r="G40">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H40">
         <v>0.40625</v>
       </c>
       <c r="I40">
-        <v>0.41052631578947368</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="J40">
-        <v>-0.13393989805135401</v>
+        <v>-0.133939898051354</v>
       </c>
       <c r="K40">
         <v>0.4467250502177435</v>
       </c>
       <c r="L40">
-        <v>-5.1359148562429629E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2281,7 +2226,7 @@
         <v>497.01</v>
       </c>
       <c r="D41">
-        <v>-4.4167022873056183E-3</v>
+        <v>-0.004416702287305618</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -2290,25 +2235,25 @@
         <v>57</v>
       </c>
       <c r="G41">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H41">
-        <v>0.41666666666666669</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="I41">
-        <v>0.42105263157894729</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="J41">
         <v>-0.1090601770126275</v>
       </c>
       <c r="K41">
-        <v>0.45657738028328848</v>
+        <v>0.4565773802832885</v>
       </c>
       <c r="L41">
-        <v>-4.8074089384594889E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2319,7 +2264,7 @@
         <v>564.6</v>
       </c>
       <c r="D42">
-        <v>-4.3299674419507994E-3</v>
+        <v>-0.004329967441950799</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -2328,25 +2273,25 @@
         <v>56</v>
       </c>
       <c r="G42">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H42">
-        <v>0.42708333333333331</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="I42">
-        <v>0.43157894736842112</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="J42">
-        <v>-0.10527397034111551</v>
+        <v>-0.1052739703411155</v>
       </c>
       <c r="K42">
-        <v>0.45807920842199329</v>
+        <v>0.4580792084219933</v>
       </c>
       <c r="L42">
-        <v>-3.8197073327706881E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2357,7 +2302,7 @@
         <v>485.12</v>
       </c>
       <c r="D43">
-        <v>-4.0936872531807111E-3</v>
+        <v>-0.004093687253180711</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -2366,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="G43">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H43">
         <v>0.4375</v>
       </c>
       <c r="I43">
-        <v>0.44210526315789472</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="J43">
-        <v>-9.4959711712905293E-2</v>
+        <v>-0.09495971171290529</v>
       </c>
       <c r="K43">
-        <v>0.46217341382790789</v>
+        <v>0.4621734138279079</v>
       </c>
       <c r="L43">
-        <v>-3.6879589314587949E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2392,10 +2337,10 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>593.70000000000005</v>
+        <v>593.7</v>
       </c>
       <c r="D44">
-        <v>-4.0342969492517264E-3</v>
+        <v>-0.004034296949251726</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -2404,25 +2349,25 @@
         <v>54</v>
       </c>
       <c r="G44">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H44">
-        <v>0.44791666666666669</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="I44">
-        <v>0.45263157894736838</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="J44">
-        <v>-9.2367166997581629E-2</v>
+        <v>-0.09236716699758163</v>
       </c>
       <c r="K44">
         <v>0.4632031624108251</v>
       </c>
       <c r="L44">
-        <v>-3.624041599841948E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2433,7 +2378,7 @@
         <v>519.14</v>
       </c>
       <c r="D45">
-        <v>-3.9410622655848826E-3</v>
+        <v>-0.003941062265584883</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -2442,25 +2387,25 @@
         <v>53</v>
       </c>
       <c r="G45">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="H45">
-        <v>0.45833333333333331</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="I45">
         <v>0.4631578947368421</v>
       </c>
       <c r="J45">
-        <v>-8.8297225097395848E-2</v>
+        <v>-0.08829722509739585</v>
       </c>
       <c r="K45">
-        <v>0.46482022219733687</v>
+        <v>0.4648202221973369</v>
       </c>
       <c r="L45">
-        <v>-2.8945842301740781E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2471,7 +2416,7 @@
         <v>474.45</v>
       </c>
       <c r="D46">
-        <v>-3.7236939110716349E-3</v>
+        <v>-0.003723693911071635</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -2480,25 +2425,25 @@
         <v>52</v>
       </c>
       <c r="G46">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H46">
         <v>0.46875</v>
       </c>
       <c r="I46">
-        <v>0.47368421052631582</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="J46">
-        <v>-7.8808518330618652E-2</v>
+        <v>-0.07880851833061865</v>
       </c>
       <c r="K46">
-        <v>0.46859246423785489</v>
+        <v>0.4685924642378549</v>
       </c>
       <c r="L46">
-        <v>-2.5235522193997281E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2509,7 +2454,7 @@
         <v>627.96</v>
       </c>
       <c r="D47">
-        <v>-3.6083619532849549E-3</v>
+        <v>-0.003608361953284955</v>
       </c>
       <c r="E47">
         <v>46</v>
@@ -2518,25 +2463,25 @@
         <v>51</v>
       </c>
       <c r="G47">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H47">
-        <v>0.47916666666666669</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="I47">
-        <v>0.48421052631578948</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="J47">
-        <v>-7.377397164728608E-2</v>
+        <v>-0.07377397164728608</v>
       </c>
       <c r="K47">
-        <v>0.47059511909487661</v>
+        <v>0.4705951190948766</v>
       </c>
       <c r="L47">
-        <v>-2.3115438049994782E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2547,7 +2492,7 @@
         <v>543.09</v>
       </c>
       <c r="D48">
-        <v>-3.217121523178434E-3</v>
+        <v>-0.003217121523178434</v>
       </c>
       <c r="E48">
         <v>47</v>
@@ -2556,25 +2501,25 @@
         <v>50</v>
       </c>
       <c r="G48">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H48">
-        <v>0.48958333333333331</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="I48">
-        <v>0.49473684210526309</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="J48">
-        <v>-5.6695286367169508E-2</v>
+        <v>-0.05669528636716951</v>
       </c>
       <c r="K48">
-        <v>0.47739396445602122</v>
+        <v>0.4773939644560212</v>
       </c>
       <c r="L48">
-        <v>-2.0691387394567631E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2585,7 +2530,7 @@
         <v>473.18</v>
       </c>
       <c r="D49">
-        <v>-2.6803726356252611E-3</v>
+        <v>-0.002680372635625261</v>
       </c>
       <c r="E49">
         <v>48</v>
@@ -2594,25 +2539,25 @@
         <v>49</v>
       </c>
       <c r="G49">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H49">
         <v>0.5</v>
       </c>
       <c r="I49">
-        <v>0.50526315789473686</v>
+        <v>0.5052631578947369</v>
       </c>
       <c r="J49">
-        <v>-3.3264769939004131E-2</v>
+        <v>-0.03326476993900413</v>
       </c>
       <c r="K49">
-        <v>0.48673172385921148</v>
+        <v>0.4867317238592115</v>
       </c>
       <c r="L49">
-        <v>-6.204601705345873E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2623,7 +2568,7 @@
         <v>492.27</v>
       </c>
       <c r="D50">
-        <v>-2.677866611500157E-3</v>
+        <v>-0.002677866611500157</v>
       </c>
       <c r="E50">
         <v>49</v>
@@ -2632,25 +2577,25 @@
         <v>48</v>
       </c>
       <c r="G50">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H50">
-        <v>0.51041666666666663</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="I50">
-        <v>0.51578947368421046</v>
+        <v>0.5157894736842105</v>
       </c>
       <c r="J50">
-        <v>-3.3155375321159093E-2</v>
+        <v>-0.03315537532115909</v>
       </c>
       <c r="K50">
-        <v>0.48677534193747918</v>
+        <v>0.4867753419374792</v>
       </c>
       <c r="L50">
-        <v>-5.7048283501702642E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2661,7 +2606,7 @@
         <v>596.1</v>
       </c>
       <c r="D51">
-        <v>-2.647055441664214E-3</v>
+        <v>-0.002647055441664214</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -2670,25 +2615,25 @@
         <v>47</v>
       </c>
       <c r="G51">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H51">
-        <v>0.52083333333333337</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="I51">
-        <v>0.52631578947368418</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="J51">
-        <v>-3.1810385815353129E-2</v>
+        <v>-0.03181038581535313</v>
       </c>
       <c r="K51">
-        <v>0.48731163207306982</v>
+        <v>0.4873116320730698</v>
       </c>
       <c r="L51">
-        <v>-5.4420705137046528E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2696,10 +2641,10 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>537.57000000000005</v>
+        <v>537.5700000000001</v>
       </c>
       <c r="D52">
-        <v>-1.765652030599973E-3</v>
+        <v>-0.001765652030599973</v>
       </c>
       <c r="E52">
         <v>51</v>
@@ -2708,7 +2653,7 @@
         <v>46</v>
       </c>
       <c r="G52">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H52">
         <v>0.53125</v>
@@ -2717,16 +2662,16 @@
         <v>0.5368421052631579</v>
       </c>
       <c r="J52">
-        <v>6.6652171745754307E-3</v>
+        <v>0.006665217174575431</v>
       </c>
       <c r="K52">
-        <v>0.50265901725112128</v>
+        <v>0.5026590172511213</v>
       </c>
       <c r="L52">
-        <v>-6.9632553142099643E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2737,7 +2682,7 @@
         <v>484.28</v>
       </c>
       <c r="D53">
-        <v>-1.733031174413036E-3</v>
+        <v>-0.001733031174413036</v>
       </c>
       <c r="E53">
         <v>52</v>
@@ -2746,25 +2691,25 @@
         <v>45</v>
       </c>
       <c r="G53">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H53">
-        <v>0.54166666666666663</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="I53">
-        <v>0.54736842105263162</v>
+        <v>0.5473684210526316</v>
       </c>
       <c r="J53">
-        <v>8.089204302472645E-3</v>
+        <v>0.008089204302472645</v>
       </c>
       <c r="K53">
-        <v>0.50322709041679126</v>
+        <v>0.5032270904167913</v>
       </c>
       <c r="L53">
-        <v>1.386601235010002E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2775,7 +2720,7 @@
         <v>596.54</v>
       </c>
       <c r="D54">
-        <v>-1.5912501368573471E-3</v>
+        <v>-0.001591250136857347</v>
       </c>
       <c r="E54">
         <v>53</v>
@@ -2784,25 +2729,25 @@
         <v>44</v>
       </c>
       <c r="G54">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="H54">
-        <v>0.55208333333333337</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="I54">
-        <v>0.55789473684210522</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="J54">
-        <v>1.42783236591882E-2</v>
+        <v>0.0142783236591882</v>
       </c>
       <c r="K54">
-        <v>0.50569603345802527</v>
+        <v>0.5056960334580253</v>
       </c>
       <c r="L54">
-        <v>1.9026763478919911E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2810,10 +2755,10 @@
         <v>64</v>
       </c>
       <c r="C55">
-        <v>551.82000000000005</v>
+        <v>551.8200000000001</v>
       </c>
       <c r="D55">
-        <v>-1.2134275379356301E-3</v>
+        <v>-0.00121342753793563</v>
       </c>
       <c r="E55">
         <v>54</v>
@@ -2828,19 +2773,19 @@
         <v>0.5625</v>
       </c>
       <c r="I55">
-        <v>0.56842105263157894</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="J55">
-        <v>3.0771284923296009E-2</v>
+        <v>0.03077128492329601</v>
       </c>
       <c r="K55">
-        <v>0.51227402955851831</v>
+        <v>0.5122740295585183</v>
       </c>
       <c r="L55">
-        <v>2.771169458390078E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2851,7 +2796,7 @@
         <v>482.29</v>
       </c>
       <c r="D56">
-        <v>-7.4616041764841157E-4</v>
+        <v>-0.0007461604176484116</v>
       </c>
       <c r="E56">
         <v>55</v>
@@ -2863,22 +2808,22 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.57291666666666663</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="I56">
-        <v>0.57894736842105265</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="J56">
-        <v>5.116873742317956E-2</v>
+        <v>0.05116873742317956</v>
       </c>
       <c r="K56">
-        <v>0.52040446843973465</v>
+        <v>0.5204044684397346</v>
       </c>
       <c r="L56">
-        <v>2.8050203087849651E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2889,7 +2834,7 @@
         <v>615.86</v>
       </c>
       <c r="D57">
-        <v>1.6237588393863689E-5</v>
+        <v>1.623758839386369e-05</v>
       </c>
       <c r="E57">
         <v>56</v>
@@ -2901,22 +2846,22 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.58333333333333337</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I57">
-        <v>0.58947368421052626</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="J57">
-        <v>8.4449437988403209E-2</v>
+        <v>0.08444943798840321</v>
       </c>
       <c r="K57">
-        <v>0.53365044909728354</v>
+        <v>0.5336504490972835</v>
       </c>
       <c r="L57">
-        <v>3.202352632350539E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2927,7 +2872,7 @@
         <v>504.6</v>
       </c>
       <c r="D58">
-        <v>3.9643211619377888E-4</v>
+        <v>0.0003964321161937789</v>
       </c>
       <c r="E58">
         <v>57</v>
@@ -2948,13 +2893,13 @@
         <v>0.1010459402562016</v>
       </c>
       <c r="K58">
-        <v>0.54024300413817172</v>
+        <v>0.5402430041381717</v>
       </c>
       <c r="L58">
-        <v>3.2807556779749871E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2965,7 +2910,7 @@
         <v>507.6</v>
       </c>
       <c r="D59">
-        <v>7.2918620142203849E-4</v>
+        <v>0.0007291862014220385</v>
       </c>
       <c r="E59">
         <v>58</v>
@@ -2977,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0.60416666666666663</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="I59">
-        <v>0.61052631578947369</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="J59">
         <v>0.1155715410376424</v>
       </c>
       <c r="K59">
-        <v>0.54600394065200375</v>
+        <v>0.5460039406520037</v>
       </c>
       <c r="L59">
-        <v>3.517041532791938E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3003,7 +2948,7 @@
         <v>483.43</v>
       </c>
       <c r="D60">
-        <v>1.1383511696925199E-3</v>
+        <v>0.00113835116969252</v>
       </c>
       <c r="E60">
         <v>59</v>
@@ -3015,22 +2960,22 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0.61458333333333337</v>
+        <v>0.6145833333333334</v>
       </c>
       <c r="I60">
         <v>0.6210526315789473</v>
       </c>
       <c r="J60">
-        <v>0.13343268007901871</v>
+        <v>0.1334326800790187</v>
       </c>
       <c r="K60">
-        <v>0.55307439924297297</v>
+        <v>0.553074399242973</v>
       </c>
       <c r="L60">
-        <v>3.8507002169716588E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3041,7 +2986,7 @@
         <v>483.11</v>
       </c>
       <c r="D61">
-        <v>1.6987781172561609E-3</v>
+        <v>0.001698778117256161</v>
       </c>
       <c r="E61">
         <v>60</v>
@@ -3050,25 +2995,25 @@
         <v>37</v>
       </c>
       <c r="G61">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="H61">
         <v>0.625</v>
       </c>
       <c r="I61">
-        <v>0.63157894736842102</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="J61">
         <v>0.1578968067985653</v>
       </c>
       <c r="K61">
-        <v>0.56273094284668634</v>
+        <v>0.5627309428466863</v>
       </c>
       <c r="L61">
-        <v>4.0274024712150958E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3076,10 +3021,10 @@
         <v>71</v>
       </c>
       <c r="C62">
-        <v>597.67999999999995</v>
+        <v>597.6799999999999</v>
       </c>
       <c r="D62">
-        <v>1.9091965404660629E-3</v>
+        <v>0.001909196540466063</v>
       </c>
       <c r="E62">
         <v>61</v>
@@ -3088,25 +3033,25 @@
         <v>36</v>
       </c>
       <c r="G62">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="H62">
-        <v>0.63541666666666663</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="I62">
-        <v>0.64210526315789473</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="J62">
-        <v>0.16708213058057281</v>
+        <v>0.1670821305805728</v>
       </c>
       <c r="K62">
-        <v>0.56634728695135883</v>
+        <v>0.5663472869513588</v>
       </c>
       <c r="L62">
-        <v>4.3849121254384898E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3117,7 +3062,7 @@
         <v>466.89</v>
       </c>
       <c r="D63">
-        <v>4.013268469919673E-3</v>
+        <v>0.004013268469919673</v>
       </c>
       <c r="E63">
         <v>62</v>
@@ -3126,25 +3071,25 @@
         <v>35</v>
       </c>
       <c r="G63">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="H63">
-        <v>0.64583333333333337</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="I63">
-        <v>0.65263157894736845</v>
+        <v>0.6526315789473685</v>
       </c>
       <c r="J63">
-        <v>0.25893046609150677</v>
+        <v>0.2589304660915068</v>
       </c>
       <c r="K63">
-        <v>0.60215555447985503</v>
+        <v>0.602155554479855</v>
       </c>
       <c r="L63">
-        <v>4.6692398508883541E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3155,7 +3100,7 @@
         <v>604.66</v>
       </c>
       <c r="D64">
-        <v>4.5916122276494784E-3</v>
+        <v>0.004591612227649478</v>
       </c>
       <c r="E64">
         <v>63</v>
@@ -3164,25 +3109,25 @@
         <v>34</v>
       </c>
       <c r="G64">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="H64">
         <v>0.65625</v>
       </c>
       <c r="I64">
-        <v>0.66315789473684206</v>
+        <v>0.6631578947368421</v>
       </c>
       <c r="J64">
-        <v>0.28417670922465649</v>
+        <v>0.2841767092246565</v>
       </c>
       <c r="K64">
-        <v>0.61186251832940075</v>
+        <v>0.6118625183294008</v>
       </c>
       <c r="L64">
-        <v>6.5291833924925498E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3193,7 +3138,7 @@
         <v>591.03</v>
       </c>
       <c r="D65">
-        <v>8.2057492623084372E-3</v>
+        <v>0.008205749262308437</v>
       </c>
       <c r="E65">
         <v>64</v>
@@ -3202,25 +3147,25 @@
         <v>33</v>
       </c>
       <c r="G65">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="H65">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I65">
-        <v>0.67368421052631577</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="J65">
-        <v>0.44194340260383691</v>
+        <v>0.4419434026038369</v>
       </c>
       <c r="K65">
-        <v>0.67073491895834059</v>
+        <v>0.6707349189583406</v>
       </c>
       <c r="L65">
-        <v>8.5366602712417493E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3231,7 +3176,7 @@
         <v>477.56</v>
       </c>
       <c r="D66">
-        <v>8.6646178252882677E-3</v>
+        <v>0.008664617825288268</v>
       </c>
       <c r="E66">
         <v>65</v>
@@ -3240,25 +3185,25 @@
         <v>32</v>
       </c>
       <c r="G66">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="H66">
-        <v>0.67708333333333337</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="I66">
-        <v>0.68421052631578949</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="J66">
-        <v>0.46197423574124602</v>
+        <v>0.461974235741246</v>
       </c>
       <c r="K66">
         <v>0.6779501016997741</v>
       </c>
       <c r="L66">
-        <v>1.007810635075536E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3269,7 +3214,7 @@
         <v>477.12</v>
       </c>
       <c r="D67">
-        <v>8.8840819265429971E-3</v>
+        <v>0.008884081926542997</v>
       </c>
       <c r="E67">
         <v>66</v>
@@ -3287,16 +3232,16 @@
         <v>0.6947368421052631</v>
       </c>
       <c r="J67">
-        <v>0.47155442742693832</v>
+        <v>0.4715544274269383</v>
       </c>
       <c r="K67">
-        <v>0.68137756904768021</v>
+        <v>0.6813775690476802</v>
       </c>
       <c r="L67">
-        <v>1.022908388443E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3304,10 +3249,10 @@
         <v>77</v>
       </c>
       <c r="C68">
-        <v>586.20000000000005</v>
+        <v>586.2</v>
       </c>
       <c r="D68">
-        <v>9.6850982037768318E-3</v>
+        <v>0.009685098203776832</v>
       </c>
       <c r="E68">
         <v>67</v>
@@ -3319,22 +3264,22 @@
         <v>0.01</v>
       </c>
       <c r="H68">
-        <v>0.69791666666666663</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="I68">
-        <v>0.70526315789473681</v>
+        <v>0.7052631578947368</v>
       </c>
       <c r="J68">
-        <v>0.50652091823516743</v>
+        <v>0.5065209182351674</v>
       </c>
       <c r="K68">
-        <v>0.69375449565357483</v>
+        <v>0.6937544956535748</v>
       </c>
       <c r="L68">
-        <v>1.1261909668341331E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3345,7 +3290,7 @@
         <v>634.76</v>
       </c>
       <c r="D69">
-        <v>1.0850130598513809E-2</v>
+        <v>0.01085013059851381</v>
       </c>
       <c r="E69">
         <v>68</v>
@@ -3357,22 +3302,22 @@
         <v>0.01</v>
       </c>
       <c r="H69">
-        <v>0.70833333333333337</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="I69">
-        <v>0.71578947368421053</v>
+        <v>0.7157894736842105</v>
       </c>
       <c r="J69">
-        <v>0.55737768067517401</v>
+        <v>0.557377680675174</v>
       </c>
       <c r="K69">
-        <v>0.71136529423137618</v>
+        <v>0.7113652942313762</v>
       </c>
       <c r="L69">
-        <v>1.167220322532048E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3383,7 +3328,7 @@
         <v>597.49</v>
       </c>
       <c r="D70">
-        <v>1.0870769724836469E-2</v>
+        <v>0.01087076972483647</v>
       </c>
       <c r="E70">
         <v>69</v>
@@ -3398,19 +3343,19 @@
         <v>0.71875</v>
       </c>
       <c r="I70">
-        <v>0.72631578947368425</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="J70">
-        <v>0.55827863342902251</v>
+        <v>0.5582786334290225</v>
       </c>
       <c r="K70">
-        <v>0.71167293357539063</v>
+        <v>0.7116729335753906</v>
       </c>
       <c r="L70">
-        <v>1.216261143538701E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3421,7 +3366,7 @@
         <v>560.48</v>
       </c>
       <c r="D71">
-        <v>1.2640214260318141E-2</v>
+        <v>0.01264021426031814</v>
       </c>
       <c r="E71">
         <v>70</v>
@@ -3430,25 +3375,25 @@
         <v>27</v>
       </c>
       <c r="G71">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="H71">
-        <v>0.72916666666666663</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="I71">
-        <v>0.73684210526315785</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="J71">
-        <v>0.63551959324977947</v>
+        <v>0.6355195932497795</v>
       </c>
       <c r="K71">
-        <v>0.73745520393015884</v>
+        <v>0.7374552039301588</v>
       </c>
       <c r="L71">
-        <v>1.548712926205517E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3459,7 +3404,7 @@
         <v>472.9</v>
       </c>
       <c r="D72">
-        <v>1.2790265764802021E-2</v>
+        <v>0.01279026576480202</v>
       </c>
       <c r="E72">
         <v>71</v>
@@ -3468,25 +3413,25 @@
         <v>26</v>
       </c>
       <c r="G72">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="H72">
-        <v>0.73958333333333337</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="I72">
-        <v>0.74736842105263157</v>
+        <v>0.7473684210526316</v>
       </c>
       <c r="J72">
-        <v>0.64206974048326082</v>
+        <v>0.6420697404832608</v>
       </c>
       <c r="K72">
-        <v>0.73958604894828117</v>
+        <v>0.7395860489482812</v>
       </c>
       <c r="L72">
-        <v>1.5729994188379452E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3497,7 +3442,7 @@
         <v>476.22</v>
       </c>
       <c r="D73">
-        <v>1.2934494300754549E-2</v>
+        <v>0.01293449430075455</v>
       </c>
       <c r="E73">
         <v>72</v>
@@ -3506,25 +3451,25 @@
         <v>25</v>
       </c>
       <c r="G73">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="H73">
         <v>0.75</v>
       </c>
       <c r="I73">
-        <v>0.75789473684210529</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="J73">
-        <v>0.64836569965413315</v>
+        <v>0.6483656996541332</v>
       </c>
       <c r="K73">
-        <v>0.74162577513319639</v>
+        <v>0.7416257751331964</v>
       </c>
       <c r="L73">
-        <v>1.6625511588139321E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3535,7 +3480,7 @@
         <v>469.39</v>
       </c>
       <c r="D74">
-        <v>1.407416336167433E-2</v>
+        <v>0.01407416336167433</v>
       </c>
       <c r="E74">
         <v>73</v>
@@ -3544,25 +3489,25 @@
         <v>24</v>
       </c>
       <c r="G74">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H74">
-        <v>0.76041666666666663</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="I74">
-        <v>0.76842105263157889</v>
+        <v>0.7684210526315789</v>
       </c>
       <c r="J74">
-        <v>0.69811528511910037</v>
+        <v>0.6981152851191004</v>
       </c>
       <c r="K74">
-        <v>0.75744745010956671</v>
+        <v>0.7574474501095667</v>
       </c>
       <c r="L74">
-        <v>1.7058038617438188E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3570,10 +3515,10 @@
         <v>84</v>
       </c>
       <c r="C75">
-        <v>521.19000000000005</v>
+        <v>521.1900000000001</v>
       </c>
       <c r="D75">
-        <v>1.4163803760019361E-2</v>
+        <v>0.01416380376001936</v>
       </c>
       <c r="E75">
         <v>74</v>
@@ -3582,25 +3527,25 @@
         <v>23</v>
       </c>
       <c r="G75">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H75">
-        <v>0.77083333333333337</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="I75">
-        <v>0.77894736842105261</v>
+        <v>0.7789473684210526</v>
       </c>
       <c r="J75">
-        <v>0.70202832690596828</v>
+        <v>0.7020283269059683</v>
       </c>
       <c r="K75">
-        <v>0.75866925098390847</v>
+        <v>0.7586692509839085</v>
       </c>
       <c r="L75">
-        <v>1.7426792765367238E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3611,7 +3556,7 @@
         <v>615.85</v>
       </c>
       <c r="D76">
-        <v>1.42440204177694E-2</v>
+        <v>0.0142440204177694</v>
       </c>
       <c r="E76">
         <v>75</v>
@@ -3620,25 +3565,25 @@
         <v>22</v>
       </c>
       <c r="G76">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H76">
         <v>0.78125</v>
       </c>
       <c r="I76">
-        <v>0.78947368421052633</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J76">
-        <v>0.70552999735337785</v>
+        <v>0.7055299973533778</v>
       </c>
       <c r="K76">
-        <v>0.75975976458589534</v>
+        <v>0.7597597645858953</v>
       </c>
       <c r="L76">
-        <v>1.823757206917382E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3649,7 +3594,7 @@
         <v>493.59</v>
       </c>
       <c r="D77">
-        <v>1.5126287365979429E-2</v>
+        <v>0.01512628736597943</v>
       </c>
       <c r="E77">
         <v>76</v>
@@ -3658,25 +3603,25 @@
         <v>21</v>
       </c>
       <c r="G77">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H77">
-        <v>0.79166666666666663</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="I77">
-        <v>0.79999999999999993</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="J77">
         <v>0.7440432960363017</v>
       </c>
       <c r="K77">
-        <v>0.77157485886149357</v>
+        <v>0.7715748588614936</v>
       </c>
       <c r="L77">
-        <v>1.8310780845099909E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3687,7 +3632,7 @@
         <v>476.57</v>
       </c>
       <c r="D78">
-        <v>1.5180637418994E-2</v>
+        <v>0.015180637418994</v>
       </c>
       <c r="E78">
         <v>77</v>
@@ -3696,25 +3641,25 @@
         <v>20</v>
       </c>
       <c r="G78">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H78">
-        <v>0.80208333333333337</v>
+        <v>0.8020833333333334</v>
       </c>
       <c r="I78">
-        <v>0.81052631578947365</v>
+        <v>0.8105263157894737</v>
       </c>
       <c r="J78">
-        <v>0.74641582039463761</v>
+        <v>0.7464158203946376</v>
       </c>
       <c r="K78">
-        <v>0.77229186730212052</v>
+        <v>0.7722918673021205</v>
       </c>
       <c r="L78">
-        <v>1.8381166645794329E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3725,7 +3670,7 @@
         <v>560.28</v>
       </c>
       <c r="D79">
-        <v>1.521475262818406E-2</v>
+        <v>0.01521475262818406</v>
       </c>
       <c r="E79">
         <v>78</v>
@@ -3734,25 +3679,25 @@
         <v>19</v>
       </c>
       <c r="G79">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H79">
         <v>0.8125</v>
       </c>
       <c r="I79">
-        <v>0.82105263157894737</v>
+        <v>0.8210526315789474</v>
       </c>
       <c r="J79">
-        <v>0.74790504000536051</v>
+        <v>0.7479050400053605</v>
       </c>
       <c r="K79">
         <v>0.7727412813337472</v>
       </c>
       <c r="L79">
-        <v>1.941002254607789E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3763,7 +3708,7 @@
         <v>507.23</v>
       </c>
       <c r="D80">
-        <v>1.531691231174293E-2</v>
+        <v>0.01531691231174293</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -3772,25 +3717,25 @@
         <v>18</v>
       </c>
       <c r="G80">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H80">
-        <v>0.82291666666666663</v>
+        <v>0.8229166666666666</v>
       </c>
       <c r="I80">
-        <v>0.83157894736842108</v>
+        <v>0.8315789473684211</v>
       </c>
       <c r="J80">
-        <v>0.75236458188691702</v>
+        <v>0.752364581886917</v>
       </c>
       <c r="K80">
         <v>0.7740840800508717</v>
       </c>
       <c r="L80">
-        <v>2.0106163750743169E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3801,7 +3746,7 @@
         <v>606.48</v>
       </c>
       <c r="D81">
-        <v>1.545317626202092E-2</v>
+        <v>0.01545317626202092</v>
       </c>
       <c r="E81">
         <v>80</v>
@@ -3810,25 +3755,25 @@
         <v>17</v>
       </c>
       <c r="G81">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H81">
-        <v>0.83333333333333337</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="I81">
-        <v>0.84210526315789469</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J81">
-        <v>0.75831286571123868</v>
+        <v>0.7583128657112387</v>
       </c>
       <c r="K81">
-        <v>0.77586814650741154</v>
+        <v>0.7758681465074115</v>
       </c>
       <c r="L81">
-        <v>2.079292862859532E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3836,10 +3781,10 @@
         <v>91</v>
       </c>
       <c r="C82">
-        <v>560.41999999999996</v>
+        <v>560.42</v>
       </c>
       <c r="D82">
-        <v>1.5700208298633282E-2</v>
+        <v>0.01570020829863328</v>
       </c>
       <c r="E82">
         <v>81</v>
@@ -3848,25 +3793,25 @@
         <v>16</v>
       </c>
       <c r="G82">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="H82">
         <v>0.84375</v>
       </c>
       <c r="I82">
-        <v>0.85263157894736841</v>
+        <v>0.8526315789473684</v>
       </c>
       <c r="J82">
-        <v>0.76909647109235957</v>
+        <v>0.7690964710923596</v>
       </c>
       <c r="K82">
-        <v>0.77908197851738925</v>
+        <v>0.7790819785173893</v>
       </c>
       <c r="L82">
-        <v>2.1646118704947009E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3877,7 +3822,7 @@
         <v>627.91</v>
       </c>
       <c r="D83">
-        <v>1.6264437071886739E-2</v>
+        <v>0.01626443707188674</v>
       </c>
       <c r="E83">
         <v>82</v>
@@ -3886,25 +3831,25 @@
         <v>15</v>
       </c>
       <c r="G83">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="H83">
-        <v>0.85416666666666663</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="I83">
-        <v>0.86315789473684212</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="J83">
-        <v>0.79372655761424205</v>
+        <v>0.793726557614242</v>
       </c>
       <c r="K83">
-        <v>0.78632268202798183</v>
+        <v>0.7863226820279818</v>
       </c>
       <c r="L83">
-        <v>2.1793901132733839E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3915,7 +3860,7 @@
         <v>492.55</v>
       </c>
       <c r="D84">
-        <v>1.6932726462148832E-2</v>
+        <v>0.01693272646214883</v>
       </c>
       <c r="E84">
         <v>83</v>
@@ -3924,25 +3869,25 @@
         <v>14</v>
       </c>
       <c r="G84">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="H84">
-        <v>0.86458333333333337</v>
+        <v>0.8645833333333334</v>
       </c>
       <c r="I84">
-        <v>0.87368421052631573</v>
+        <v>0.8736842105263157</v>
       </c>
       <c r="J84">
-        <v>0.82289916681830544</v>
+        <v>0.8228991668183054</v>
       </c>
       <c r="K84">
-        <v>0.79471733171988679</v>
+        <v>0.7947173317198868</v>
       </c>
       <c r="L84">
-        <v>2.2788598052678771E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3953,7 +3898,7 @@
         <v>627.21</v>
       </c>
       <c r="D85">
-        <v>1.826174781075984E-2</v>
+        <v>0.01826174781075984</v>
       </c>
       <c r="E85">
         <v>84</v>
@@ -3962,25 +3907,25 @@
         <v>13</v>
       </c>
       <c r="G85">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="H85">
         <v>0.875</v>
       </c>
       <c r="I85">
-        <v>0.88421052631578945</v>
+        <v>0.8842105263157894</v>
       </c>
       <c r="J85">
-        <v>0.88091448322439303</v>
+        <v>0.880914483224393</v>
       </c>
       <c r="K85">
         <v>0.8108179461058943</v>
       </c>
       <c r="L85">
-        <v>2.3118063066676731E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3988,10 +3933,10 @@
         <v>95</v>
       </c>
       <c r="C86">
-        <v>570.92999999999995</v>
+        <v>570.9299999999999</v>
       </c>
       <c r="D86">
-        <v>1.8829951426199368E-2</v>
+        <v>0.01882995142619937</v>
       </c>
       <c r="E86">
         <v>85</v>
@@ -4003,22 +3948,22 @@
         <v>0.02</v>
       </c>
       <c r="H86">
-        <v>0.88541666666666663</v>
+        <v>0.8854166666666666</v>
       </c>
       <c r="I86">
-        <v>0.89473684210526316</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="J86">
-        <v>0.90571808217881067</v>
+        <v>0.9057180821788107</v>
       </c>
       <c r="K86">
-        <v>0.81745745540570192</v>
+        <v>0.8174574554057019</v>
       </c>
       <c r="L86">
-        <v>2.354417503520595E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4029,7 +3974,7 @@
         <v>485.35</v>
       </c>
       <c r="D87">
-        <v>1.955747346092096E-2</v>
+        <v>0.01955747346092096</v>
       </c>
       <c r="E87">
         <v>86</v>
@@ -4041,22 +3986,22 @@
         <v>0.02</v>
       </c>
       <c r="H87">
-        <v>0.89583333333333337</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="I87">
-        <v>0.90526315789473677</v>
+        <v>0.9052631578947368</v>
       </c>
       <c r="J87">
-        <v>0.93747635384305872</v>
+        <v>0.9374763538430587</v>
       </c>
       <c r="K87">
-        <v>0.82574320924212075</v>
+        <v>0.8257432092421207</v>
       </c>
       <c r="L87">
-        <v>2.5113396991479121E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4067,7 +4012,7 @@
         <v>486.18</v>
       </c>
       <c r="D88">
-        <v>1.9964308883776209E-2</v>
+        <v>0.01996430888377621</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4082,19 +4027,19 @@
         <v>0.90625</v>
       </c>
       <c r="I88">
-        <v>0.91578947368421049</v>
+        <v>0.9157894736842105</v>
       </c>
       <c r="J88">
-        <v>0.95523580203162184</v>
+        <v>0.9552358020316218</v>
       </c>
       <c r="K88">
-        <v>0.83027076781619602</v>
+        <v>0.830270767816196</v>
       </c>
       <c r="L88">
-        <v>2.6723826931169928E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4105,7 +4050,7 @@
         <v>556.04</v>
       </c>
       <c r="D89">
-        <v>2.3565182052929678E-2</v>
+        <v>0.02356518205292968</v>
       </c>
       <c r="E89">
         <v>88</v>
@@ -4114,10 +4059,10 @@
         <v>9</v>
       </c>
       <c r="G89">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="H89">
-        <v>0.91666666666666663</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I89">
         <v>0.9263157894736842</v>
@@ -4126,13 +4071,13 @@
         <v>1.112423492406168</v>
       </c>
       <c r="K89">
-        <v>0.86702194576856129</v>
+        <v>0.8670219457685613</v>
       </c>
       <c r="L89">
-        <v>2.7482712844999181E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.112423492406168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4140,10 +4085,10 @@
         <v>99</v>
       </c>
       <c r="C90">
-        <v>622.58000000000004</v>
+        <v>622.58</v>
       </c>
       <c r="D90">
-        <v>2.620038238981515E-2</v>
+        <v>0.02620038238981515</v>
       </c>
       <c r="E90">
         <v>89</v>
@@ -4152,25 +4097,25 @@
         <v>8</v>
       </c>
       <c r="G90">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="H90">
-        <v>0.92708333333333337</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="I90">
-        <v>0.93684210526315792</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="J90">
-        <v>1.2274569954402761</v>
+        <v>1.227456995440276</v>
       </c>
       <c r="K90">
-        <v>0.89017456213061619</v>
+        <v>0.8901745621306162</v>
       </c>
       <c r="L90">
-        <v>2.8607185361650699E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.227456995440276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4181,7 +4126,7 @@
         <v>630.23</v>
       </c>
       <c r="D91">
-        <v>2.620391699215396E-2</v>
+        <v>0.02620391699215396</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -4190,25 +4135,25 @@
         <v>7</v>
       </c>
       <c r="G91">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="H91">
         <v>0.9375</v>
       </c>
       <c r="I91">
-        <v>0.94736842105263153</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="J91">
         <v>1.227611290232659</v>
       </c>
       <c r="K91">
-        <v>0.89020353924734641</v>
+        <v>0.8902035392473464</v>
       </c>
       <c r="L91">
-        <v>3.0588217452199629E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.227611290232659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4216,10 +4161,10 @@
         <v>101</v>
       </c>
       <c r="C92">
-        <v>580.54999999999995</v>
+        <v>580.55</v>
       </c>
       <c r="D92">
-        <v>2.7858414253626229E-2</v>
+        <v>0.02785841425362623</v>
       </c>
       <c r="E92">
         <v>91</v>
@@ -4228,25 +4173,25 @@
         <v>6</v>
       </c>
       <c r="G92">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="H92">
-        <v>0.94791666666666663</v>
+        <v>0.9479166666666666</v>
       </c>
       <c r="I92">
-        <v>0.95789473684210524</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="J92">
-        <v>1.2998344958400301</v>
+        <v>1.29983449584003</v>
       </c>
       <c r="K92">
-        <v>0.90317115014828619</v>
+        <v>0.9031711501482862</v>
       </c>
       <c r="L92">
-        <v>3.6806357605091863E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.29983449584003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4254,10 +4199,10 @@
         <v>102</v>
       </c>
       <c r="C93">
-        <v>553.44000000000005</v>
+        <v>553.4400000000001</v>
       </c>
       <c r="D93">
-        <v>2.9094361108424671E-2</v>
+        <v>0.02909436110842467</v>
       </c>
       <c r="E93">
         <v>92</v>
@@ -4269,22 +4214,22 @@
         <v>0.03</v>
       </c>
       <c r="H93">
-        <v>0.95833333333333337</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="I93">
-        <v>0.96842105263157896</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="J93">
-        <v>1.3537868630590959</v>
+        <v>1.353786863059096</v>
       </c>
       <c r="K93">
-        <v>0.91209780698998388</v>
+        <v>0.9120978069899839</v>
       </c>
       <c r="L93">
-        <v>3.7095589550554878E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.353786863059096</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4292,10 +4237,10 @@
         <v>103</v>
       </c>
       <c r="C94">
-        <v>611.54999999999995</v>
+        <v>611.55</v>
       </c>
       <c r="D94">
-        <v>2.962257665674262E-2</v>
+        <v>0.02962257665674262</v>
       </c>
       <c r="E94">
         <v>93</v>
@@ -4310,19 +4255,19 @@
         <v>0.96875</v>
       </c>
       <c r="I94">
-        <v>0.97894736842105257</v>
+        <v>0.9789473684210526</v>
       </c>
       <c r="J94">
-        <v>1.3768448765351839</v>
+        <v>1.376844876535184</v>
       </c>
       <c r="K94">
-        <v>0.91571989356290118</v>
+        <v>0.9157198935629012</v>
       </c>
       <c r="L94">
-        <v>3.9659831370037861E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.376844876535184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4333,7 +4278,7 @@
         <v>579.14</v>
       </c>
       <c r="D95">
-        <v>3.2857741925609751E-2</v>
+        <v>0.03285774192560975</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -4342,25 +4287,25 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="H95">
-        <v>0.97916666666666663</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="I95">
-        <v>0.98947368421052628</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="J95">
-        <v>1.5180684444601611</v>
+        <v>1.518068444460161</v>
       </c>
       <c r="K95">
-        <v>0.93550142743728981</v>
+        <v>0.9355014274372898</v>
       </c>
       <c r="L95">
-        <v>4.2314438970480428E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1.518068444460161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4371,7 +4316,7 @@
         <v>513.86</v>
       </c>
       <c r="D96">
-        <v>4.2537615774249637E-2</v>
+        <v>0.04253761577424964</v>
       </c>
       <c r="E96">
         <v>95</v>
@@ -4380,22 +4325,22 @@
         <v>2</v>
       </c>
       <c r="G96">
-        <v>4.2999999999999997E-2</v>
+        <v>0.043</v>
       </c>
       <c r="H96">
-        <v>0.98958333333333337</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96">
-        <v>1.9406206816283409</v>
+        <v>1.940620681628341</v>
       </c>
       <c r="K96">
-        <v>0.97384784818301884</v>
+        <v>0.9738478481830188</v>
       </c>
       <c r="L96">
-        <v>4.5603363717665622E-2</v>
+        <v>1.940620681628341</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/stats.xlsx
+++ b/xlsx/stats.xlsx
@@ -486,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-17</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>492.46</v>
+        <v>214.92</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.147012284002729</v>
+        <v>-0.06013184104462432</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -502,13 +502,13 @@
         <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.147</v>
+        <v>-0.06</v>
       </c>
       <c r="H2" t="n">
         <v>0.01052631578947368</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06884756893673077</v>
+        <v>-0.03841886349593648</v>
       </c>
     </row>
     <row r="3">
@@ -517,14 +517,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>546.66</v>
+        <v>247.29</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07704098471497378</v>
+        <v>-0.05280858394621024</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -533,13 +533,13 @@
         <v>95</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.077</v>
+        <v>-0.052</v>
       </c>
       <c r="H3" t="n">
         <v>0.02105263157894737</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05747885415475073</v>
+        <v>-0.03635488269376227</v>
       </c>
     </row>
     <row r="4">
@@ -548,14 +548,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>544.84</v>
+        <v>248.71</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04152360575955072</v>
+        <v>-0.04223790291081375</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -570,7 +570,7 @@
         <v>0.03157894736842105</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05409011469717837</v>
+        <v>-0.03384319064106148</v>
       </c>
     </row>
     <row r="5">
@@ -579,14 +579,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>607.14</v>
+        <v>239.01</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03775374843525103</v>
+        <v>-0.03664105619777658</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -601,7 +601,7 @@
         <v>0.04210526315789474</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04893597275464123</v>
+        <v>-0.03205247015046048</v>
       </c>
     </row>
     <row r="6">
@@ -610,14 +610,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>611.84</v>
+        <v>229.62</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02481060236366517</v>
+        <v>-0.03154998072292781</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -626,13 +626,13 @@
         <v>92</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.025</v>
+        <v>-0.033</v>
       </c>
       <c r="H6" t="n">
         <v>0.05263157894736842</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04270437276595071</v>
+        <v>-0.02825941281199428</v>
       </c>
     </row>
     <row r="7">
@@ -641,14 +641,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>590.4400000000001</v>
+        <v>227.19</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.02379829491907248</v>
+        <v>-0.03004713262917935</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -657,13 +657,13 @@
         <v>91</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.025</v>
+        <v>-0.03</v>
       </c>
       <c r="H7" t="n">
         <v>0.06315789473684211</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04264752826659474</v>
+        <v>-0.02616285167425678</v>
       </c>
     </row>
     <row r="8">
@@ -672,14 +672,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>499.52</v>
+        <v>256.76</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02321107002994438</v>
+        <v>-0.02035536742009825</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -688,13 +688,13 @@
         <v>90</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.022</v>
+        <v>-0.02</v>
       </c>
       <c r="H8" t="n">
         <v>0.07368421052631578</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.04045763297614108</v>
+        <v>-0.02583483465539661</v>
       </c>
     </row>
     <row r="9">
@@ -703,14 +703,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-04-30</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>462.83</v>
+        <v>210.63</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02188355304935996</v>
+        <v>-0.02016282616335285</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -719,13 +719,13 @@
         <v>89</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.022</v>
+        <v>-0.02</v>
       </c>
       <c r="H9" t="n">
         <v>0.08421052631578947</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03435591152980129</v>
+        <v>-0.02434725437501626</v>
       </c>
     </row>
     <row r="10">
@@ -734,14 +734,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>474.09</v>
+        <v>212.85</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0212660747504172</v>
+        <v>-0.01829532211344276</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -750,13 +750,13 @@
         <v>88</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.022</v>
+        <v>-0.018</v>
       </c>
       <c r="H10" t="n">
         <v>0.09473684210526316</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.03290726718297413</v>
+        <v>-0.02369136584171273</v>
       </c>
     </row>
     <row r="11">
@@ -765,14 +765,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>487.11</v>
+        <v>262.04</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02012017635142271</v>
+        <v>-0.01755227388618419</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -781,13 +781,13 @@
         <v>87</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02</v>
+        <v>-0.018</v>
       </c>
       <c r="H11" t="n">
         <v>0.1052631578947368</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03104092188805441</v>
+        <v>-0.02295658711329499</v>
       </c>
     </row>
     <row r="12">
@@ -796,14 +796,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>465.02</v>
+        <v>236.98</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01739545036903412</v>
+        <v>-0.01707011577160333</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -818,7 +818,7 @@
         <v>0.1157894736842105</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.028556055836795</v>
+        <v>-0.02230638106786432</v>
       </c>
     </row>
     <row r="13">
@@ -827,14 +827,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>601.89</v>
+        <v>254.24</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01639610606276243</v>
+        <v>-0.01673303858492226</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -849,7 +849,7 @@
         <v>0.1263157894736842</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02679669085194228</v>
+        <v>-0.01841499845125575</v>
       </c>
     </row>
     <row r="14">
@@ -858,14 +858,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>617.78</v>
+        <v>258.7</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01634406314787551</v>
+        <v>-0.01564809102169207</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -874,13 +874,13 @@
         <v>84</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.018</v>
+        <v>-0.015</v>
       </c>
       <c r="H14" t="n">
         <v>0.1368421052631579</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.02643806212275866</v>
+        <v>-0.01838986209696088</v>
       </c>
     </row>
     <row r="15">
@@ -889,14 +889,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>511.25</v>
+        <v>260.7</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01531488895132149</v>
+        <v>-0.0153778913461684</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -911,7 +911,7 @@
         <v>0.1473684210526316</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.02552513068504525</v>
+        <v>-0.01787602870274862</v>
       </c>
     </row>
     <row r="16">
@@ -920,14 +920,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-02-05</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>475.95</v>
+        <v>252.81</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01493156429691744</v>
+        <v>-0.01429549538290598</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -942,7 +942,7 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02316557483509203</v>
+        <v>-0.0178050159465116</v>
       </c>
     </row>
     <row r="17">
@@ -951,14 +951,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>571.79</v>
+        <v>215</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01437699481033228</v>
+        <v>-0.01353588218005708</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -967,13 +967,13 @@
         <v>81</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="H17" t="n">
         <v>0.1684210526315789</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.02313972646396837</v>
+        <v>-0.01779249347606178</v>
       </c>
     </row>
     <row r="18">
@@ -982,14 +982,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>552.49</v>
+        <v>238.47</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.01435822576857948</v>
+        <v>-0.01262595683949641</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
@@ -998,13 +998,13 @@
         <v>80</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="H18" t="n">
         <v>0.1789473684210526</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0212821417883994</v>
+        <v>-0.01707732859487606</v>
       </c>
     </row>
     <row r="19">
@@ -1013,14 +1013,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>613.9299999999999</v>
+        <v>255.26</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01399121900461608</v>
+        <v>-0.01183906654724964</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
@@ -1029,13 +1029,13 @@
         <v>79</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="H19" t="n">
         <v>0.1894736842105263</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.02017259528916622</v>
+        <v>-0.0167445235611772</v>
       </c>
     </row>
     <row r="20">
@@ -1044,14 +1044,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>603.59</v>
+        <v>258.3</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01310155844000516</v>
+        <v>-0.01135610317722602</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -1066,7 +1066,7 @@
         <v>0.2</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.01974285654372802</v>
+        <v>-0.01525859676430917</v>
       </c>
     </row>
     <row r="21">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>482.65</v>
+        <v>262.86</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01122854959847785</v>
+        <v>-0.01093444616819461</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -1097,7 +1097,7 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.0187100333554594</v>
+        <v>-0.01448822146860511</v>
       </c>
     </row>
     <row r="22">
@@ -1106,14 +1106,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>487.22</v>
+        <v>252.52</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0108802118454463</v>
+        <v>-0.0107921800551205</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
@@ -1128,7 +1128,7 @@
         <v>0.2210526315789474</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01794010598874173</v>
+        <v>-0.01438095513765105</v>
       </c>
     </row>
     <row r="23">
@@ -1137,14 +1137,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>597.1799999999999</v>
+        <v>253.81</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01067658400733951</v>
+        <v>-0.01042574309893762</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
@@ -1159,7 +1159,7 @@
         <v>0.2315789473684211</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01733577913495614</v>
+        <v>-0.01430945352539173</v>
       </c>
     </row>
     <row r="24">
@@ -1168,14 +1168,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>573.55</v>
+        <v>210.71</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.009699127818073805</v>
+        <v>-0.01010491174544548</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
@@ -1190,7 +1190,7 @@
         <v>0.2421052631578947</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.01642362578693973</v>
+        <v>-0.01414079352048555</v>
       </c>
     </row>
     <row r="25">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>473.07</v>
+        <v>214.62</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.009446437391583018</v>
+        <v>-0.009644886043331802</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -1221,7 +1221,7 @@
         <v>0.2526315789473684</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0159266714797445</v>
+        <v>-0.0141140610043738</v>
       </c>
     </row>
     <row r="26">
@@ -1230,14 +1230,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>541.91</v>
+        <v>246.38</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.008727100962795831</v>
+        <v>-0.009412499554421139</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
@@ -1246,13 +1246,13 @@
         <v>72</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="H26" t="n">
         <v>0.2631578947368421</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01485750084075787</v>
+        <v>-0.01400120067255459</v>
       </c>
     </row>
     <row r="27">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>488.1</v>
+        <v>251.86</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.008507043562066663</v>
+        <v>-0.007830769697239504</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
@@ -1283,7 +1283,7 @@
         <v>0.2736842105263158</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.01472186685021784</v>
+        <v>-0.01372363964956719</v>
       </c>
     </row>
     <row r="28">
@@ -1292,14 +1292,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-02-28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>470.1</v>
+        <v>255.25</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.008451739059037067</v>
+        <v>-0.00663805639346382</v>
       </c>
       <c r="E28" t="n">
         <v>27</v>
@@ -1314,7 +1314,7 @@
         <v>0.2842105263157895</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.01398161163124536</v>
+        <v>-0.01329707519641139</v>
       </c>
     </row>
     <row r="29">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>567.05</v>
+        <v>244.81</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.008324307841554912</v>
+        <v>-0.006392660056778965</v>
       </c>
       <c r="E29" t="n">
         <v>28</v>
@@ -1345,7 +1345,7 @@
         <v>0.2947368421052631</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.01358951627189297</v>
+        <v>-0.01319256938007728</v>
       </c>
     </row>
     <row r="30">
@@ -1354,14 +1354,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>551.6900000000001</v>
+        <v>228.24</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.00785393978778437</v>
+        <v>-0.006028061760421366</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
@@ -1370,13 +1370,13 @@
         <v>68</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="H30" t="n">
         <v>0.3052631578947368</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01331279720686511</v>
+        <v>-0.01301284119916446</v>
       </c>
     </row>
     <row r="31">
@@ -1385,14 +1385,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>473.44</v>
+        <v>216.78</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.007742842924473692</v>
+        <v>-0.005290895920115446</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1401,13 +1401,13 @@
         <v>67</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="H31" t="n">
         <v>0.3157894736842105</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.01295535249349514</v>
+        <v>-0.01211795404485941</v>
       </c>
     </row>
     <row r="32">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>630.5</v>
+        <v>216.65</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.006733819289666876</v>
+        <v>-0.005156311778940825</v>
       </c>
       <c r="E32" t="n">
         <v>31</v>
@@ -1432,13 +1432,13 @@
         <v>66</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="H32" t="n">
         <v>0.3263157894736842</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01116226779421779</v>
+        <v>-0.01144609987701868</v>
       </c>
     </row>
     <row r="33">
@@ -1447,14 +1447,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>504.4</v>
+        <v>261.57</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.006324131749468442</v>
+        <v>-0.004919636946029371</v>
       </c>
       <c r="E33" t="n">
         <v>32</v>
@@ -1463,13 +1463,13 @@
         <v>65</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="H33" t="n">
         <v>0.3368421052631579</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.01111284894134258</v>
+        <v>-0.0109009323355982</v>
       </c>
     </row>
     <row r="34">
@@ -1478,14 +1478,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-05-10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>538.52</v>
+        <v>217.77</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006275299879992424</v>
+        <v>-0.003941343323937474</v>
       </c>
       <c r="E34" t="n">
         <v>33</v>
@@ -1494,13 +1494,13 @@
         <v>64</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="H34" t="n">
         <v>0.3473684210526315</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.01022384370548639</v>
+        <v>-0.0101608888474527</v>
       </c>
     </row>
     <row r="35">
@@ -1509,14 +1509,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>484.28</v>
+        <v>241.5</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.006052514616702531</v>
+        <v>-0.003884783990456775</v>
       </c>
       <c r="E35" t="n">
         <v>34</v>
@@ -1531,7 +1531,7 @@
         <v>0.3578947368421053</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01015481704480267</v>
+        <v>-0.009888555020368719</v>
       </c>
     </row>
     <row r="36">
@@ -1540,14 +1540,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-05-14</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>499.21</v>
+        <v>215.83</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.005752537585141049</v>
+        <v>-0.003792087415039447</v>
       </c>
       <c r="E36" t="n">
         <v>35</v>
@@ -1562,7 +1562,7 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01008915410924837</v>
+        <v>-0.00920306077041769</v>
       </c>
     </row>
     <row r="37">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>570.45</v>
+        <v>259.44</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.005419593684898416</v>
+        <v>-0.003770250301520228</v>
       </c>
       <c r="E37" t="n">
         <v>36</v>
@@ -1593,7 +1593,7 @@
         <v>0.3789473684210526</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.009257830926931814</v>
+        <v>-0.009131391067120685</v>
       </c>
     </row>
     <row r="38">
@@ -1602,14 +1602,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>567.9400000000001</v>
+        <v>209.95</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.005250830858353872</v>
+        <v>-0.003613373398513531</v>
       </c>
       <c r="E38" t="n">
         <v>37</v>
@@ -1618,13 +1618,13 @@
         <v>60</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H38" t="n">
         <v>0.3894736842105263</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.008239367445834081</v>
+        <v>-0.00705182927717112</v>
       </c>
     </row>
     <row r="39">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>482.88</v>
+        <v>251.75</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.005102104578750932</v>
+        <v>-0.003608179803219258</v>
       </c>
       <c r="E39" t="n">
         <v>38</v>
@@ -1649,13 +1649,13 @@
         <v>59</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H39" t="n">
         <v>0.4</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.008234710748315281</v>
+        <v>-0.006759605933368191</v>
       </c>
     </row>
     <row r="40">
@@ -1664,14 +1664,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>502.09</v>
+        <v>261.25</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.004986649715955416</v>
+        <v>-0.003515345028541894</v>
       </c>
       <c r="E40" t="n">
         <v>39</v>
@@ -1680,13 +1680,13 @@
         <v>58</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H40" t="n">
         <v>0.4105263157894737</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.006187766520348362</v>
+        <v>-0.006423174795084882</v>
       </c>
     </row>
     <row r="41">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>497.01</v>
+        <v>213.95</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.004416702287305618</v>
+        <v>-0.003126679636155316</v>
       </c>
       <c r="E41" t="n">
         <v>40</v>
@@ -1711,13 +1711,13 @@
         <v>57</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H41" t="n">
         <v>0.4210526315789473</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.004802629570806549</v>
+        <v>-0.006066693339145592</v>
       </c>
     </row>
     <row r="42">
@@ -1726,14 +1726,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>564.6</v>
+        <v>256.47</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.004329967441950799</v>
+        <v>-0.002958927601709682</v>
       </c>
       <c r="E42" t="n">
         <v>41</v>
@@ -1742,13 +1742,13 @@
         <v>56</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H42" t="n">
         <v>0.4315789473684211</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.004324588592705947</v>
+        <v>-0.004093304517575531</v>
       </c>
     </row>
     <row r="43">
@@ -1757,14 +1757,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>485.12</v>
+        <v>260.97</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.004093687253180711</v>
+        <v>-0.002678709699104331</v>
       </c>
       <c r="E43" t="n">
         <v>42</v>
@@ -1773,13 +1773,13 @@
         <v>55</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H43" t="n">
         <v>0.4421052631578947</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.003274872137717096</v>
+        <v>-0.003825164333269657</v>
       </c>
     </row>
     <row r="44">
@@ -1788,14 +1788,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>593.7</v>
+        <v>260.42</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.004034296949251726</v>
+        <v>-0.0021097458869761</v>
       </c>
       <c r="E44" t="n">
         <v>43</v>
@@ -1804,13 +1804,13 @@
         <v>54</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H44" t="n">
         <v>0.4526315789473684</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.002664264109184237</v>
+        <v>-0.002568583578495567</v>
       </c>
     </row>
     <row r="45">
@@ -1819,14 +1819,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-02-27</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>519.14</v>
+        <v>256.95</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.003941062265584883</v>
+        <v>-0.001555512660525338</v>
       </c>
       <c r="E45" t="n">
         <v>44</v>
@@ -1835,13 +1835,13 @@
         <v>53</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="H45" t="n">
         <v>0.4631578947368421</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.002644876547946708</v>
+        <v>-0.002389940415982806</v>
       </c>
     </row>
     <row r="46">
@@ -1850,14 +1850,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>474.45</v>
+        <v>258.53</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003723693911071635</v>
+        <v>-0.0006573478186551185</v>
       </c>
       <c r="E46" t="n">
         <v>45</v>
@@ -1866,13 +1866,13 @@
         <v>52</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0.4736842105263158</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.00257317950560736</v>
+        <v>-0.002367747905564059</v>
       </c>
     </row>
     <row r="47">
@@ -1881,14 +1881,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>627.96</v>
+        <v>252.66</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.003608361953284955</v>
+        <v>-0.0004748338170887934</v>
       </c>
       <c r="E47" t="n">
         <v>46</v>
@@ -1897,13 +1897,13 @@
         <v>51</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0.4842105263157895</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.001938412156323156</v>
+        <v>-0.002123498526384532</v>
       </c>
     </row>
     <row r="48">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>543.09</v>
+        <v>244.74</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003217121523178434</v>
+        <v>-0.0002859769195264761</v>
       </c>
       <c r="E48" t="n">
         <v>47</v>
@@ -1928,13 +1928,13 @@
         <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0.4947368421052631</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.0009821958358117336</v>
+        <v>-0.001543373544286327</v>
       </c>
     </row>
     <row r="49">
@@ -1943,14 +1943,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>473.18</v>
+        <v>261.67</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.002680372635625261</v>
+        <v>0.0003822337788301766</v>
       </c>
       <c r="E49" t="n">
         <v>48</v>
@@ -1959,13 +1959,13 @@
         <v>49</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0.5052631578947369</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.0004444190928998785</v>
+        <v>-0.001447247244487958</v>
       </c>
     </row>
     <row r="50">
@@ -1974,14 +1974,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>492.27</v>
+        <v>257.35</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.002677866611500157</v>
+        <v>0.0005830337352996651</v>
       </c>
       <c r="E50" t="n">
         <v>49</v>
@@ -1990,13 +1990,13 @@
         <v>48</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0.5157894736842105</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0003149312196317896</v>
+        <v>-0.001383458787776461</v>
       </c>
     </row>
     <row r="51">
@@ -2005,14 +2005,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>596.1</v>
+        <v>257.2</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002647055441664214</v>
+        <v>0.0008557315081292316</v>
       </c>
       <c r="E51" t="n">
         <v>50</v>
@@ -2021,13 +2021,13 @@
         <v>47</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0.5263157894736842</v>
       </c>
       <c r="I51" t="n">
-        <v>0.001734303913876858</v>
+        <v>-0.00124291495169253</v>
       </c>
     </row>
     <row r="52">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-05-16</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>537.5700000000001</v>
+        <v>220.43</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.001765652030599973</v>
+        <v>0.0008623233338944658</v>
       </c>
       <c r="E52" t="n">
         <v>51</v>
@@ -2052,13 +2052,13 @@
         <v>46</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0.5368421052631579</v>
       </c>
       <c r="I52" t="n">
-        <v>0.001905627237624808</v>
+        <v>-0.0004854233578399255</v>
       </c>
     </row>
     <row r="53">
@@ -2067,14 +2067,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>484.28</v>
+        <v>235.96</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.001733031174413036</v>
+        <v>0.002163722445311045</v>
       </c>
       <c r="E53" t="n">
         <v>52</v>
@@ -2083,13 +2083,13 @@
         <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.003</v>
+        <v>0.003</v>
       </c>
       <c r="H53" t="n">
         <v>0.5473684210526316</v>
       </c>
       <c r="I53" t="n">
-        <v>0.002060168879335924</v>
+        <v>-0.0001881680393286448</v>
       </c>
     </row>
     <row r="54">
@@ -2098,14 +2098,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>596.54</v>
+        <v>229.52</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.001591250136857347</v>
+        <v>0.002617574132208311</v>
       </c>
       <c r="E54" t="n">
         <v>53</v>
@@ -2114,13 +2114,13 @@
         <v>44</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.003</v>
+        <v>0.003</v>
       </c>
       <c r="H54" t="n">
         <v>0.5578947368421052</v>
       </c>
       <c r="I54" t="n">
-        <v>0.002785159436380215</v>
+        <v>9.70916570583706e-05</v>
       </c>
     </row>
     <row r="55">
@@ -2129,14 +2129,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>551.8200000000001</v>
+        <v>217.13</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.00121342753793563</v>
+        <v>0.002905705063136033</v>
       </c>
       <c r="E55" t="n">
         <v>54</v>
@@ -2145,13 +2145,13 @@
         <v>43</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H55" t="n">
         <v>0.5684210526315789</v>
       </c>
       <c r="I55" t="n">
-        <v>0.003175512489880537</v>
+        <v>0.0002651186623792265</v>
       </c>
     </row>
     <row r="56">
@@ -2160,14 +2160,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>482.29</v>
+        <v>221.21</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0007461604176484116</v>
+        <v>0.003532292414684335</v>
       </c>
       <c r="E56" t="n">
         <v>55</v>
@@ -2176,13 +2176,13 @@
         <v>42</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H56" t="n">
         <v>0.5789473684210527</v>
       </c>
       <c r="I56" t="n">
-        <v>0.003453511046511433</v>
+        <v>0.0005954138544529045</v>
       </c>
     </row>
     <row r="57">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>615.86</v>
+        <v>217.93</v>
       </c>
       <c r="D57" t="n">
-        <v>1.623758839386369e-05</v>
+        <v>0.003677657802039214</v>
       </c>
       <c r="E57" t="n">
         <v>56</v>
@@ -2207,13 +2207,13 @@
         <v>41</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H57" t="n">
         <v>0.5894736842105263</v>
       </c>
       <c r="I57" t="n">
-        <v>0.004233166909151772</v>
+        <v>0.001404556400208744</v>
       </c>
     </row>
     <row r="58">
@@ -2222,14 +2222,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>504.6</v>
+        <v>255.18</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0003964321161937789</v>
+        <v>0.003690475705191432</v>
       </c>
       <c r="E58" t="n">
         <v>57</v>
@@ -2238,13 +2238,13 @@
         <v>40</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H58" t="n">
         <v>0.6</v>
       </c>
       <c r="I58" t="n">
-        <v>0.00437837429349911</v>
+        <v>0.002442122998504682</v>
       </c>
     </row>
     <row r="59">
@@ -2253,14 +2253,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>507.6</v>
+        <v>256.19</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0007291862014220385</v>
+        <v>0.003950178201022503</v>
       </c>
       <c r="E59" t="n">
         <v>58</v>
@@ -2269,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="H59" t="n">
         <v>0.6105263157894737</v>
       </c>
       <c r="I59" t="n">
-        <v>0.006393850650235813</v>
+        <v>0.004627127037042723</v>
       </c>
     </row>
     <row r="60">
@@ -2284,14 +2284,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>483.43</v>
+        <v>253.98</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00113835116969252</v>
+        <v>0.004617305308515895</v>
       </c>
       <c r="E60" t="n">
         <v>59</v>
@@ -2300,13 +2300,13 @@
         <v>38</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="H60" t="n">
         <v>0.6210526315789473</v>
       </c>
       <c r="I60" t="n">
-        <v>0.007030265213488995</v>
+        <v>0.006667882688547812</v>
       </c>
     </row>
     <row r="61">
@@ -2315,14 +2315,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>483.11</v>
+        <v>245.89</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001698778117256161</v>
+        <v>0.004687858899922404</v>
       </c>
       <c r="E61" t="n">
         <v>60</v>
@@ -2331,13 +2331,13 @@
         <v>37</v>
       </c>
       <c r="G61" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="H61" t="n">
         <v>0.631578947368421</v>
       </c>
       <c r="I61" t="n">
-        <v>0.007347836654934577</v>
+        <v>0.006774383534500002</v>
       </c>
     </row>
     <row r="62">
@@ -2346,14 +2346,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>597.6799999999999</v>
+        <v>255.07</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001909196540466063</v>
+        <v>0.004952061684110554</v>
       </c>
       <c r="E62" t="n">
         <v>61</v>
@@ -2362,13 +2362,13 @@
         <v>36</v>
       </c>
       <c r="G62" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="H62" t="n">
         <v>0.6421052631578947</v>
       </c>
       <c r="I62" t="n">
-        <v>0.007643478670453655</v>
+        <v>0.006851910357809168</v>
       </c>
     </row>
     <row r="63">
@@ -2377,14 +2377,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>466.89</v>
+        <v>253.07</v>
       </c>
       <c r="D63" t="n">
-        <v>0.004013268469919673</v>
+        <v>0.005229598701936844</v>
       </c>
       <c r="E63" t="n">
         <v>62</v>
@@ -2399,7 +2399,7 @@
         <v>0.6526315789473685</v>
       </c>
       <c r="I63" t="n">
-        <v>0.007726608419276571</v>
+        <v>0.007391140274377256</v>
       </c>
     </row>
     <row r="64">
@@ -2408,14 +2408,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>604.66</v>
+        <v>256.45</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004591612227649478</v>
+        <v>0.005395696543851969</v>
       </c>
       <c r="E64" t="n">
         <v>63</v>
@@ -2430,7 +2430,7 @@
         <v>0.6631578947368421</v>
       </c>
       <c r="I64" t="n">
-        <v>0.008084802244504889</v>
+        <v>0.007493483832402335</v>
       </c>
     </row>
     <row r="65">
@@ -2439,14 +2439,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>591.03</v>
+        <v>216.4</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008205749262308437</v>
+        <v>0.00649051884466445</v>
       </c>
       <c r="E65" t="n">
         <v>64</v>
@@ -2461,7 +2461,7 @@
         <v>0.6736842105263158</v>
       </c>
       <c r="I65" t="n">
-        <v>0.008521509237455907</v>
+        <v>0.007913886396556579</v>
       </c>
     </row>
     <row r="66">
@@ -2470,14 +2470,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-05-06</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>477.56</v>
+        <v>216.7</v>
       </c>
       <c r="D66" t="n">
-        <v>0.008664617825288268</v>
+        <v>0.00699254973586072</v>
       </c>
       <c r="E66" t="n">
         <v>65</v>
@@ -2492,7 +2492,7 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="I66" t="n">
-        <v>0.009073449296860367</v>
+        <v>0.008511584066642564</v>
       </c>
     </row>
     <row r="67">
@@ -2501,14 +2501,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>477.12</v>
+        <v>217.93</v>
       </c>
       <c r="D67" t="n">
-        <v>0.008884081926542997</v>
+        <v>0.007045363335392629</v>
       </c>
       <c r="E67" t="n">
         <v>66</v>
@@ -2517,13 +2517,13 @@
         <v>31</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H67" t="n">
         <v>0.6947368421052631</v>
       </c>
       <c r="I67" t="n">
-        <v>0.009992845817947507</v>
+        <v>0.008617736850106436</v>
       </c>
     </row>
     <row r="68">
@@ -2532,14 +2532,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-12</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>586.2</v>
+        <v>242.44</v>
       </c>
       <c r="D68" t="n">
-        <v>0.009685098203776832</v>
+        <v>0.007410661333966395</v>
       </c>
       <c r="E68" t="n">
         <v>67</v>
@@ -2548,13 +2548,13 @@
         <v>30</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H68" t="n">
         <v>0.7052631578947368</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01026845215075704</v>
+        <v>0.008744016997963077</v>
       </c>
     </row>
     <row r="69">
@@ -2563,14 +2563,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>634.76</v>
+        <v>228.92</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01085013059851381</v>
+        <v>0.007585925747060962</v>
       </c>
       <c r="E69" t="n">
         <v>68</v>
@@ -2579,13 +2579,13 @@
         <v>29</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H69" t="n">
         <v>0.7157894736842105</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01099613608185137</v>
+        <v>0.009103652117092111</v>
       </c>
     </row>
     <row r="70">
@@ -2598,10 +2598,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>597.49</v>
+        <v>240.65</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01087076972483647</v>
+        <v>0.007633465643879234</v>
       </c>
       <c r="E70" t="n">
         <v>69</v>
@@ -2610,13 +2610,13 @@
         <v>28</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H70" t="n">
         <v>0.7263157894736842</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0141101164532052</v>
+        <v>0.009213989898061664</v>
       </c>
     </row>
     <row r="71">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>560.48</v>
+        <v>252.78</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01264021426031814</v>
+        <v>0.007903609663433286</v>
       </c>
       <c r="E71" t="n">
         <v>70</v>
@@ -2641,13 +2641,13 @@
         <v>27</v>
       </c>
       <c r="G71" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="H71" t="n">
         <v>0.7368421052631579</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01520595310196653</v>
+        <v>0.009251190018629075</v>
       </c>
     </row>
     <row r="72">
@@ -2656,14 +2656,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>472.9</v>
+        <v>247.93</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01279026576480202</v>
+        <v>0.008262166800716564</v>
       </c>
       <c r="E72" t="n">
         <v>71</v>
@@ -2672,13 +2672,13 @@
         <v>26</v>
       </c>
       <c r="G72" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="H72" t="n">
         <v>0.7473684210526316</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01545001307148072</v>
+        <v>0.009294496332220806</v>
       </c>
     </row>
     <row r="73">
@@ -2687,14 +2687,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>476.22</v>
+        <v>241.06</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01293449430075455</v>
+        <v>0.008540473099812651</v>
       </c>
       <c r="E73" t="n">
         <v>72</v>
@@ -2703,13 +2703,13 @@
         <v>25</v>
       </c>
       <c r="G73" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="H73" t="n">
         <v>0.7578947368421053</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01579339777863938</v>
+        <v>0.01075105026883062</v>
       </c>
     </row>
     <row r="74">
@@ -2718,14 +2718,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>469.39</v>
+        <v>250.79</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01407416336167433</v>
+        <v>0.008609868376264096</v>
       </c>
       <c r="E74" t="n">
         <v>73</v>
@@ -2734,13 +2734,13 @@
         <v>24</v>
       </c>
       <c r="G74" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="H74" t="n">
         <v>0.7684210526315789</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01605276762101358</v>
+        <v>0.01155318652254505</v>
       </c>
     </row>
     <row r="75">
@@ -2749,14 +2749,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>521.1900000000001</v>
+        <v>253.84</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01416380376001936</v>
+        <v>0.01085288111140059</v>
       </c>
       <c r="E75" t="n">
         <v>74</v>
@@ -2765,13 +2765,13 @@
         <v>23</v>
       </c>
       <c r="G75" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="H75" t="n">
         <v>0.7789473684210526</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01631449483921896</v>
+        <v>0.01196517323270951</v>
       </c>
     </row>
     <row r="76">
@@ -2780,14 +2780,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>615.85</v>
+        <v>241.18</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0142440204177694</v>
+        <v>0.01130002642231531</v>
       </c>
       <c r="E76" t="n">
         <v>75</v>
@@ -2796,13 +2796,13 @@
         <v>22</v>
       </c>
       <c r="G76" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="H76" t="n">
         <v>0.7894736842105263</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01883576485206128</v>
+        <v>0.0126553872181315</v>
       </c>
     </row>
     <row r="77">
@@ -2811,14 +2811,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>493.59</v>
+        <v>258.17</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01512628736597943</v>
+        <v>0.01137482561652803</v>
       </c>
       <c r="E77" t="n">
         <v>76</v>
@@ -2827,13 +2827,13 @@
         <v>21</v>
       </c>
       <c r="G77" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="H77" t="n">
         <v>0.7999999999999999</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01944224292139983</v>
+        <v>0.01312367796741116</v>
       </c>
     </row>
     <row r="78">
@@ -2842,14 +2842,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-02-08</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>476.57</v>
+        <v>261.51</v>
       </c>
       <c r="D78" t="n">
-        <v>0.015180637418994</v>
+        <v>0.01184765945091559</v>
       </c>
       <c r="E78" t="n">
         <v>77</v>
@@ -2858,13 +2858,13 @@
         <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="H78" t="n">
         <v>0.8105263157894737</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01947556215657805</v>
+        <v>0.01359227426734178</v>
       </c>
     </row>
     <row r="79">
@@ -2873,14 +2873,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>560.28</v>
+        <v>238.82</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01521475262818406</v>
+        <v>0.01204783097036444</v>
       </c>
       <c r="E79" t="n">
         <v>78</v>
@@ -2889,13 +2889,13 @@
         <v>19</v>
       </c>
       <c r="G79" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="H79" t="n">
         <v>0.8210526315789474</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02083281027531672</v>
+        <v>0.01405600976031511</v>
       </c>
     </row>
     <row r="80">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>507.23</v>
+        <v>265.75</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01531691231174293</v>
+        <v>0.01257163741892331</v>
       </c>
       <c r="E80" t="n">
         <v>79</v>
@@ -2920,13 +2920,13 @@
         <v>18</v>
       </c>
       <c r="G80" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="H80" t="n">
         <v>0.8315789473684211</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02125990775286905</v>
+        <v>0.01405841656943199</v>
       </c>
     </row>
     <row r="81">
@@ -2935,14 +2935,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>606.48</v>
+        <v>251.1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01545317626202092</v>
+        <v>0.01528952917029347</v>
       </c>
       <c r="E81" t="n">
         <v>80</v>
@@ -2957,7 +2957,7 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02204494578394293</v>
+        <v>0.01420511031028279</v>
       </c>
     </row>
     <row r="82">
@@ -2966,14 +2966,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>560.42</v>
+        <v>257.23</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01570020829863328</v>
+        <v>0.01630449600735329</v>
       </c>
       <c r="E82" t="n">
         <v>81</v>
@@ -2982,13 +2982,13 @@
         <v>16</v>
       </c>
       <c r="G82" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="H82" t="n">
         <v>0.8526315789473684</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02435477551692228</v>
+        <v>0.01447152687719146</v>
       </c>
     </row>
     <row r="83">
@@ -2997,14 +2997,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>627.91</v>
+        <v>262.78</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01626443707188674</v>
+        <v>0.01735035079517022</v>
       </c>
       <c r="E83" t="n">
         <v>82</v>
@@ -3019,7 +3019,7 @@
         <v>0.8631578947368421</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0270170088350674</v>
+        <v>0.01603029569931166</v>
       </c>
     </row>
     <row r="84">
@@ -3028,14 +3028,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>492.55</v>
+        <v>258.43</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01693272646214883</v>
+        <v>0.01736934047979144</v>
       </c>
       <c r="E84" t="n">
         <v>83</v>
@@ -3050,7 +3050,7 @@
         <v>0.8736842105263157</v>
       </c>
       <c r="I84" t="n">
-        <v>0.02842940002001671</v>
+        <v>0.01730073052708602</v>
       </c>
     </row>
     <row r="85">
@@ -3059,14 +3059,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>627.21</v>
+        <v>256.98</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01826174781075984</v>
+        <v>0.01750780735591029</v>
       </c>
       <c r="E85" t="n">
         <v>84</v>
@@ -3081,7 +3081,7 @@
         <v>0.8842105263157894</v>
       </c>
       <c r="I85" t="n">
-        <v>0.02846059321963981</v>
+        <v>0.01868788470113532</v>
       </c>
     </row>
     <row r="86">
@@ -3090,14 +3090,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>570.9299999999999</v>
+        <v>266.68</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01882995142619937</v>
+        <v>0.01957691405826534</v>
       </c>
       <c r="E86" t="n">
         <v>85</v>
@@ -3112,7 +3112,7 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="I86" t="n">
-        <v>0.02905969938468173</v>
+        <v>0.01905622671977761</v>
       </c>
     </row>
     <row r="87">
@@ -3125,10 +3125,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>485.35</v>
+        <v>220.24</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01955747346092096</v>
+        <v>0.02022680006347333</v>
       </c>
       <c r="E87" t="n">
         <v>86</v>
@@ -3143,7 +3143,7 @@
         <v>0.9052631578947368</v>
       </c>
       <c r="I87" t="n">
-        <v>0.03014550406742116</v>
+        <v>0.0208627177584226</v>
       </c>
     </row>
     <row r="88">
@@ -3152,14 +3152,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>486.18</v>
+        <v>262.17</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01996430888377621</v>
+        <v>0.02085135186398546</v>
       </c>
       <c r="E88" t="n">
         <v>87</v>
@@ -3174,7 +3174,7 @@
         <v>0.9157894736842105</v>
       </c>
       <c r="I88" t="n">
-        <v>0.03038788186466854</v>
+        <v>0.0216367497206797</v>
       </c>
     </row>
     <row r="89">
@@ -3183,14 +3183,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-05-09</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>556.04</v>
+        <v>218.63</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02356518205292968</v>
+        <v>0.02163846042597051</v>
       </c>
       <c r="E89" t="n">
         <v>88</v>
@@ -3205,7 +3205,7 @@
         <v>0.9263157894736842</v>
       </c>
       <c r="I89" t="n">
-        <v>0.03053181655111144</v>
+        <v>0.02169414907550576</v>
       </c>
     </row>
     <row r="90">
@@ -3214,14 +3214,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>622.58</v>
+        <v>262.43</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02620038238981515</v>
+        <v>0.02406502310851355</v>
       </c>
       <c r="E90" t="n">
         <v>89</v>
@@ -3236,7 +3236,7 @@
         <v>0.9368421052631579</v>
       </c>
       <c r="I90" t="n">
-        <v>0.03062073717900662</v>
+        <v>0.02297013897129545</v>
       </c>
     </row>
     <row r="91">
@@ -3245,14 +3245,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>630.23</v>
+        <v>215.19</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02620391699215396</v>
+        <v>0.02465195167625023</v>
       </c>
       <c r="E91" t="n">
         <v>90</v>
@@ -3267,7 +3267,7 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="I91" t="n">
-        <v>0.03212137827295825</v>
+        <v>0.02442831586078159</v>
       </c>
     </row>
     <row r="92">
@@ -3276,14 +3276,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>580.55</v>
+        <v>258.26</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02785841425362623</v>
+        <v>0.0250934518408048</v>
       </c>
       <c r="E92" t="n">
         <v>91</v>
@@ -3292,13 +3292,13 @@
         <v>6</v>
       </c>
       <c r="G92" t="n">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="H92" t="n">
         <v>0.9578947368421052</v>
       </c>
       <c r="I92" t="n">
-        <v>0.03230174570592321</v>
+        <v>0.02476741137462436</v>
       </c>
     </row>
     <row r="93">
@@ -3307,14 +3307,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>553.4400000000001</v>
+        <v>264.74</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02909436110842467</v>
+        <v>0.02512992962432214</v>
       </c>
       <c r="E93" t="n">
         <v>92</v>
@@ -3323,13 +3323,13 @@
         <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="H93" t="n">
         <v>0.968421052631579</v>
       </c>
       <c r="I93" t="n">
-        <v>0.03241406151680494</v>
+        <v>0.02529687194409314</v>
       </c>
     </row>
     <row r="94">
@@ -3338,14 +3338,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>611.55</v>
+        <v>235.45</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02962257665674262</v>
+        <v>0.02550840501645357</v>
       </c>
       <c r="E94" t="n">
         <v>93</v>
@@ -3354,13 +3354,13 @@
         <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="H94" t="n">
         <v>0.9789473684210526</v>
       </c>
       <c r="I94" t="n">
-        <v>0.0443311401490801</v>
+        <v>0.02613730108599051</v>
       </c>
     </row>
     <row r="95">
@@ -3369,14 +3369,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>579.14</v>
+        <v>216.5</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03285774192560975</v>
+        <v>0.02748750774527675</v>
       </c>
       <c r="E95" t="n">
         <v>94</v>
@@ -3385,13 +3385,13 @@
         <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>0.033</v>
+        <v>0.028</v>
       </c>
       <c r="H95" t="n">
         <v>0.9894736842105263</v>
       </c>
       <c r="I95" t="n">
-        <v>0.04517453033017867</v>
+        <v>0.02861917568105262</v>
       </c>
     </row>
     <row r="96">
@@ -3400,14 +3400,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>513.86</v>
+        <v>248.64</v>
       </c>
       <c r="D96" t="n">
-        <v>0.04253761577424964</v>
+        <v>0.03046252450383591</v>
       </c>
       <c r="E96" t="n">
         <v>95</v>
@@ -3416,13 +3416,13 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>0.043</v>
+        <v>0.03</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.04715823800072949</v>
+        <v>0.04072662927502971</v>
       </c>
     </row>
   </sheetData>
